--- a/server/data/resources/including metadata/AMR15_testfile_updated.xlsx
+++ b/server/data/resources/including metadata/AMR15_testfile_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Desktop\BMF-DataVis\server\data\resources\including metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E7D01A-0687-4A84-8AE1-CBDCF664896F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC0EE2-332C-4CE2-90F8-0DD05B25793E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E34745B0-97AD-4A1A-8C32-AE0DB411A035}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="653">
   <si>
     <t>Husum</t>
   </si>
@@ -1991,6 +1991,42 @@
   </si>
   <si>
     <t>Arbeitsmarktregion (2015)</t>
+  </si>
+  <si>
+    <t>PKW17</t>
+  </si>
+  <si>
+    <t>bahn17</t>
+  </si>
+  <si>
+    <t>bab17</t>
+  </si>
+  <si>
+    <t>air17</t>
+  </si>
+  <si>
+    <t>ic17</t>
+  </si>
+  <si>
+    <t>Erreichbarkeit IC Bahnhöfe</t>
+  </si>
+  <si>
+    <t>Erreichbarkeit Flughäfen</t>
+  </si>
+  <si>
+    <t>BBSR Datenlieferung 2017</t>
+  </si>
+  <si>
+    <t>Minuten</t>
+  </si>
+  <si>
+    <t>Erreichbarkeit Oberzentren (PKW)</t>
+  </si>
+  <si>
+    <t>Erreichbarkeit Oberzentren (Bahn)</t>
+  </si>
+  <si>
+    <t>Erreichbarkeit Bundesautobahn</t>
   </si>
 </sst>
 </file>
@@ -2043,7 +2079,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2080,8 +2116,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2104,11 +2146,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2159,6 +2223,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2474,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313A2FC7-B2F5-4A9F-B504-E0759D65C0D9}">
-  <dimension ref="A1:AO266"/>
+  <dimension ref="A1:AT266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,7 +2577,7 @@
     <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C1" s="15" t="s">
         <v>639</v>
       </c>
@@ -2619,8 +2695,23 @@
       <c r="AO1" t="s">
         <v>640</v>
       </c>
+      <c r="AP1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>640</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
         <v>630</v>
       </c>
@@ -2779,7 +2870,7 @@
         <v>Personaleinsatz in Wissenstransfereinrichtungen (je 10.000 abhängige  Erwerbspersonen) 2017 - Quelle: BBSR-Umfrage 2017/2018, eigene Berechnungen</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C3" s="15" t="s">
         <v>631</v>
       </c>
@@ -2898,12 +2989,27 @@
         <v>638</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="15" t="s">
         <v>633</v>
       </c>
+      <c r="AP4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>649</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
         <v>632</v>
       </c>
@@ -3059,8 +3165,23 @@
         <f>INDEX(Metadaten!$D$2:$D$39,MATCH(Sheet1!AO$8,Metadaten!$A$2:$A$39,0))</f>
         <v>qPiWTR17</v>
       </c>
+      <c r="AP5" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="AQ5" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="AR5" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="AS5" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="AT5" s="17" t="s">
+        <v>645</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
         <v>590</v>
       </c>
@@ -3216,8 +3337,23 @@
         <f>INDEX(Metadaten!$C$2:$C$39,MATCH(Sheet1!AO$8,Metadaten!$A$2:$A$39,0))</f>
         <v>BBSR Datenliererung 2016</v>
       </c>
+      <c r="AP6" t="s">
+        <v>648</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>648</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>648</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>648</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>648</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
         <v>634</v>
       </c>
@@ -3335,8 +3471,23 @@
       <c r="AO7" s="16" t="s">
         <v>635</v>
       </c>
+      <c r="AP7" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="AQ7" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="AR7" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="AS7" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="AT7" s="16" t="s">
+        <v>636</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>265</v>
       </c>
@@ -3460,8 +3611,23 @@
       <c r="AO8" t="s">
         <v>550</v>
       </c>
+      <c r="AP8" t="s">
+        <v>650</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>651</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>652</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>647</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>646</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>2016</v>
       </c>
@@ -3577,7 +3743,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -3701,8 +3867,23 @@
       <c r="AO10">
         <v>7.2704713969209687</v>
       </c>
+      <c r="AP10" s="17">
+        <v>188.94010481091988</v>
+      </c>
+      <c r="AQ10" s="17">
+        <v>174.67964512831176</v>
+      </c>
+      <c r="AR10" s="18">
+        <v>51.792718268614315</v>
+      </c>
+      <c r="AS10" s="18">
+        <v>134.24977453171843</v>
+      </c>
+      <c r="AT10" s="18">
+        <v>15.07460222487914</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -3826,8 +4007,23 @@
       <c r="AO11">
         <v>5.87963354872692</v>
       </c>
+      <c r="AP11" s="19">
+        <v>126.00839030639175</v>
+      </c>
+      <c r="AQ11" s="19">
+        <v>134.21570385551428</v>
+      </c>
+      <c r="AR11" s="20">
+        <v>13.577563904188544</v>
+      </c>
+      <c r="AS11" s="20">
+        <v>74.142887306263631</v>
+      </c>
+      <c r="AT11" s="20">
+        <v>15.495636685026261</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>269</v>
       </c>
@@ -3951,8 +4147,23 @@
       <c r="AO12">
         <v>5.87963354872692</v>
       </c>
+      <c r="AP12" s="19">
+        <v>100.67655195147229</v>
+      </c>
+      <c r="AQ12" s="19">
+        <v>90.720316045602431</v>
+      </c>
+      <c r="AR12" s="20">
+        <v>8.989470268201325</v>
+      </c>
+      <c r="AS12" s="20">
+        <v>48.445946605790532</v>
+      </c>
+      <c r="AT12" s="20">
+        <v>9.5675654099570764</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>270</v>
       </c>
@@ -4076,8 +4287,23 @@
       <c r="AO13">
         <v>7.2704713969209687</v>
       </c>
+      <c r="AP13" s="19">
+        <v>152.04576683481733</v>
+      </c>
+      <c r="AQ13" s="19">
+        <v>144.79828271719822</v>
+      </c>
+      <c r="AR13" s="20">
+        <v>10.322477222739197</v>
+      </c>
+      <c r="AS13" s="20">
+        <v>95.317092050164916</v>
+      </c>
+      <c r="AT13" s="20">
+        <v>13.476794634548689</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>271</v>
       </c>
@@ -4201,8 +4427,23 @@
       <c r="AO14">
         <v>21.657821399373979</v>
       </c>
+      <c r="AP14" s="19">
+        <v>106.80525562730166</v>
+      </c>
+      <c r="AQ14" s="19">
+        <v>76.955246067348924</v>
+      </c>
+      <c r="AR14" s="20">
+        <v>5.4037390675273027</v>
+      </c>
+      <c r="AS14" s="20">
+        <v>20.098414300909752</v>
+      </c>
+      <c r="AT14" s="20">
+        <v>6.1850732553299732</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>272</v>
       </c>
@@ -4326,8 +4567,23 @@
       <c r="AO15">
         <v>109.34146182422742</v>
       </c>
+      <c r="AP15" s="19">
+        <v>121.03169085533041</v>
+      </c>
+      <c r="AQ15" s="19">
+        <v>101.43563844268989</v>
+      </c>
+      <c r="AR15" s="20">
+        <v>7.9407809692349574</v>
+      </c>
+      <c r="AS15" s="20">
+        <v>63.35747457508463</v>
+      </c>
+      <c r="AT15" s="20">
+        <v>6.2874908016024333</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>273</v>
       </c>
@@ -4451,8 +4707,23 @@
       <c r="AO16">
         <v>8.7655490183237426</v>
       </c>
+      <c r="AP16" s="19">
+        <v>90.10967630667048</v>
+      </c>
+      <c r="AQ16" s="19">
+        <v>68.816776265147681</v>
+      </c>
+      <c r="AR16" s="20">
+        <v>10.995545294596317</v>
+      </c>
+      <c r="AS16" s="20">
+        <v>36.589911016296803</v>
+      </c>
+      <c r="AT16" s="20">
+        <v>21.676545140645274</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>274</v>
       </c>
@@ -4576,8 +4847,23 @@
       <c r="AO17">
         <v>45.748495790913779</v>
       </c>
+      <c r="AP17" s="19">
+        <v>66.008722913567055</v>
+      </c>
+      <c r="AQ17" s="19">
+        <v>48.714136006524875</v>
+      </c>
+      <c r="AR17" s="20">
+        <v>7.5821686509430828</v>
+      </c>
+      <c r="AS17" s="20">
+        <v>20.826231956838381</v>
+      </c>
+      <c r="AT17" s="20">
+        <v>6.1138547213226646</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>275</v>
       </c>
@@ -4701,8 +4987,23 @@
       <c r="AO18">
         <v>54.450363739019636</v>
       </c>
+      <c r="AP18" s="19">
+        <v>93.59152910855552</v>
+      </c>
+      <c r="AQ18" s="19">
+        <v>68.165762130197365</v>
+      </c>
+      <c r="AR18" s="20">
+        <v>3.748708372225606</v>
+      </c>
+      <c r="AS18" s="20">
+        <v>49.908780865560352</v>
+      </c>
+      <c r="AT18" s="20">
+        <v>9.4696665250708438</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>276</v>
       </c>
@@ -4826,8 +5127,23 @@
       <c r="AO19">
         <v>54.450363739019643</v>
       </c>
+      <c r="AP19" s="19">
+        <v>98.536666999999994</v>
+      </c>
+      <c r="AQ19" s="19">
+        <v>92</v>
+      </c>
+      <c r="AR19" s="20">
+        <v>2.9489999999999998</v>
+      </c>
+      <c r="AS19" s="20">
+        <v>56.896999999999998</v>
+      </c>
+      <c r="AT19" s="20">
+        <v>16.89</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>277</v>
       </c>
@@ -4951,8 +5267,23 @@
       <c r="AO20">
         <v>54.450363739019643</v>
       </c>
+      <c r="AP20" s="19">
+        <v>108.34898013267518</v>
+      </c>
+      <c r="AQ20" s="19">
+        <v>57.915946837637755</v>
+      </c>
+      <c r="AR20" s="20">
+        <v>8.8804065324094541</v>
+      </c>
+      <c r="AS20" s="20">
+        <v>66.587555747509981</v>
+      </c>
+      <c r="AT20" s="20">
+        <v>6.4869560244232529</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>278</v>
       </c>
@@ -5076,8 +5407,23 @@
       <c r="AO21">
         <v>164.32087638708862</v>
       </c>
+      <c r="AP21" s="19">
+        <v>120.65426422070369</v>
+      </c>
+      <c r="AQ21" s="19">
+        <v>90.396919450152112</v>
+      </c>
+      <c r="AR21" s="20">
+        <v>9.5865543874739174</v>
+      </c>
+      <c r="AS21" s="20">
+        <v>83.619700546343651</v>
+      </c>
+      <c r="AT21" s="20">
+        <v>14.809006427103746</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>279</v>
       </c>
@@ -5201,8 +5547,23 @@
       <c r="AO22">
         <v>54.450363739019643</v>
       </c>
+      <c r="AP22" s="19">
+        <v>111.74683837335627</v>
+      </c>
+      <c r="AQ22" s="19">
+        <v>101.85691336775675</v>
+      </c>
+      <c r="AR22" s="20">
+        <v>12.638617555938039</v>
+      </c>
+      <c r="AS22" s="20">
+        <v>74.246625863453815</v>
+      </c>
+      <c r="AT22" s="20">
+        <v>37.811199770510619</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>280</v>
       </c>
@@ -5326,8 +5687,23 @@
       <c r="AO23">
         <v>54.450363739019643</v>
       </c>
+      <c r="AP23" s="19">
+        <v>103.64974173838368</v>
+      </c>
+      <c r="AQ23" s="19">
+        <v>75.798496031193423</v>
+      </c>
+      <c r="AR23" s="20">
+        <v>6.7104802023859262</v>
+      </c>
+      <c r="AS23" s="20">
+        <v>67.517356542728493</v>
+      </c>
+      <c r="AT23" s="20">
+        <v>9.6810658218446832</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>281</v>
       </c>
@@ -5451,8 +5827,23 @@
       <c r="AO24">
         <v>164.32087638708862</v>
       </c>
+      <c r="AP24" s="19">
+        <v>122.08969835766308</v>
+      </c>
+      <c r="AQ24" s="19">
+        <v>90.814556875597432</v>
+      </c>
+      <c r="AR24" s="20">
+        <v>12.477673312394739</v>
+      </c>
+      <c r="AS24" s="20">
+        <v>79.398199849788341</v>
+      </c>
+      <c r="AT24" s="20">
+        <v>29.206548340843916</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>282</v>
       </c>
@@ -5576,8 +5967,23 @@
       <c r="AO25">
         <v>66.144714922402017</v>
       </c>
+      <c r="AP25" s="19">
+        <v>62.86962624072617</v>
+      </c>
+      <c r="AQ25" s="19">
+        <v>46.996419979261702</v>
+      </c>
+      <c r="AR25" s="20">
+        <v>8.2326267228977876</v>
+      </c>
+      <c r="AS25" s="20">
+        <v>18.030052353960976</v>
+      </c>
+      <c r="AT25" s="20">
+        <v>9.6808328374174657</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>283</v>
       </c>
@@ -5701,8 +6107,23 @@
       <c r="AO26">
         <v>0.49563029370393902</v>
       </c>
+      <c r="AP26" s="19">
+        <v>81.696476450005264</v>
+      </c>
+      <c r="AQ26" s="19">
+        <v>58.994378711636976</v>
+      </c>
+      <c r="AR26" s="20">
+        <v>22.221880547622277</v>
+      </c>
+      <c r="AS26" s="20">
+        <v>38.469106215150283</v>
+      </c>
+      <c r="AT26" s="20">
+        <v>31.335474031763294</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>284</v>
       </c>
@@ -5826,8 +6247,23 @@
       <c r="AO27">
         <v>6.9305125877225056</v>
       </c>
+      <c r="AP27" s="19">
+        <v>104.5390684224796</v>
+      </c>
+      <c r="AQ27" s="19">
+        <v>91.460024990578944</v>
+      </c>
+      <c r="AR27" s="20">
+        <v>25.589837521569248</v>
+      </c>
+      <c r="AS27" s="20">
+        <v>55.637276423570484</v>
+      </c>
+      <c r="AT27" s="20">
+        <v>39.481230190999426</v>
+      </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>285</v>
       </c>
@@ -5951,8 +6387,23 @@
       <c r="AO28">
         <v>6.9305125877225047</v>
       </c>
+      <c r="AP28" s="19">
+        <v>85.953504592551582</v>
+      </c>
+      <c r="AQ28" s="19">
+        <v>69.217210729892855</v>
+      </c>
+      <c r="AR28" s="20">
+        <v>9.7767651267072093</v>
+      </c>
+      <c r="AS28" s="20">
+        <v>44.81741834487638</v>
+      </c>
+      <c r="AT28" s="20">
+        <v>10.231377223509009</v>
+      </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>286</v>
       </c>
@@ -6076,8 +6527,23 @@
       <c r="AO29">
         <v>164.32087638708862</v>
       </c>
+      <c r="AP29" s="19">
+        <v>130.87760697180508</v>
+      </c>
+      <c r="AQ29" s="19">
+        <v>113.80036837631057</v>
+      </c>
+      <c r="AR29" s="20">
+        <v>49.707782516293584</v>
+      </c>
+      <c r="AS29" s="20">
+        <v>78.638741947671662</v>
+      </c>
+      <c r="AT29" s="20">
+        <v>46.701561301596314</v>
+      </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>287</v>
       </c>
@@ -6201,8 +6667,23 @@
       <c r="AO30">
         <v>66.144714922402017</v>
       </c>
+      <c r="AP30" s="19">
+        <v>82.168690780980839</v>
+      </c>
+      <c r="AQ30" s="19">
+        <v>47</v>
+      </c>
+      <c r="AR30" s="20">
+        <v>36.379046907917548</v>
+      </c>
+      <c r="AS30" s="20">
+        <v>53.937142990479742</v>
+      </c>
+      <c r="AT30" s="20">
+        <v>13.410532840875756</v>
+      </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>288</v>
       </c>
@@ -6326,8 +6807,23 @@
       <c r="AO31">
         <v>66.144714922402017</v>
       </c>
+      <c r="AP31" s="19">
+        <v>89.553946220323738</v>
+      </c>
+      <c r="AQ31" s="19">
+        <v>74.032743036340165</v>
+      </c>
+      <c r="AR31" s="20">
+        <v>9.5027612525364322</v>
+      </c>
+      <c r="AS31" s="20">
+        <v>39.862642824202183</v>
+      </c>
+      <c r="AT31" s="20">
+        <v>23.073852633277994</v>
+      </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>289</v>
       </c>
@@ -6451,8 +6947,23 @@
       <c r="AO32">
         <v>6.0892874871761003E-2</v>
       </c>
+      <c r="AP32" s="19">
+        <v>76.322420957639991</v>
+      </c>
+      <c r="AQ32" s="19">
+        <v>52</v>
+      </c>
+      <c r="AR32" s="20">
+        <v>24.269138252174852</v>
+      </c>
+      <c r="AS32" s="20">
+        <v>42.064734721871275</v>
+      </c>
+      <c r="AT32" s="20">
+        <v>11.368658863660976</v>
+      </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>290</v>
       </c>
@@ -6576,8 +7087,23 @@
       <c r="AO33">
         <v>9.9895099734817219</v>
       </c>
+      <c r="AP33" s="19">
+        <v>78.859103013315021</v>
+      </c>
+      <c r="AQ33" s="19">
+        <v>47</v>
+      </c>
+      <c r="AR33" s="20">
+        <v>8.6420590946502056</v>
+      </c>
+      <c r="AS33" s="20">
+        <v>59.7940866392318</v>
+      </c>
+      <c r="AT33" s="20">
+        <v>6.6371691998171034</v>
+      </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>291</v>
       </c>
@@ -6701,8 +7227,23 @@
       <c r="AO34">
         <v>2.3496824966176768</v>
       </c>
+      <c r="AP34" s="19">
+        <v>70.247327587865371</v>
+      </c>
+      <c r="AQ34" s="19">
+        <v>56.349489273819934</v>
+      </c>
+      <c r="AR34" s="20">
+        <v>16.583442796807262</v>
+      </c>
+      <c r="AS34" s="20">
+        <v>49.332440657152951</v>
+      </c>
+      <c r="AT34" s="20">
+        <v>41.798147673358507</v>
+      </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>292</v>
       </c>
@@ -6826,8 +7367,23 @@
       <c r="AO35">
         <v>6.0892874871761003E-2</v>
       </c>
+      <c r="AP35" s="19">
+        <v>59.057452793834848</v>
+      </c>
+      <c r="AQ35" s="19">
+        <v>79.686000445136884</v>
+      </c>
+      <c r="AR35" s="20">
+        <v>7.9309763854885373</v>
+      </c>
+      <c r="AS35" s="20">
+        <v>42.765366636990876</v>
+      </c>
+      <c r="AT35" s="20">
+        <v>35.810217716447809</v>
+      </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>293</v>
       </c>
@@ -6951,8 +7507,23 @@
       <c r="AO36">
         <v>2.3496824966176768</v>
       </c>
+      <c r="AP36" s="19">
+        <v>87.62235894563419</v>
+      </c>
+      <c r="AQ36" s="19">
+        <v>69.791743954672697</v>
+      </c>
+      <c r="AR36" s="20">
+        <v>8.91697915753263</v>
+      </c>
+      <c r="AS36" s="20">
+        <v>66.469060419547404</v>
+      </c>
+      <c r="AT36" s="20">
+        <v>48.111626184614337</v>
+      </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>294</v>
       </c>
@@ -7076,8 +7647,23 @@
       <c r="AO37">
         <v>9.9895099734817219</v>
       </c>
+      <c r="AP37" s="19">
+        <v>109.17419651437966</v>
+      </c>
+      <c r="AQ37" s="19">
+        <v>71.091102596849723</v>
+      </c>
+      <c r="AR37" s="20">
+        <v>44.607156000189214</v>
+      </c>
+      <c r="AS37" s="20">
+        <v>98.893479471169769</v>
+      </c>
+      <c r="AT37" s="20">
+        <v>20.082982191003268</v>
+      </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>295</v>
       </c>
@@ -7201,8 +7787,23 @@
       <c r="AO38">
         <v>0.49563029370393902</v>
       </c>
+      <c r="AP38" s="19">
+        <v>57.242803021361098</v>
+      </c>
+      <c r="AQ38" s="19">
+        <v>45.542957793883367</v>
+      </c>
+      <c r="AR38" s="20">
+        <v>4.8256121794152627</v>
+      </c>
+      <c r="AS38" s="20">
+        <v>27.725522628850946</v>
+      </c>
+      <c r="AT38" s="20">
+        <v>11.517671528260822</v>
+      </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>296</v>
       </c>
@@ -7326,8 +7927,23 @@
       <c r="AO39">
         <v>8.5279152328253396</v>
       </c>
+      <c r="AP39" s="19">
+        <v>146.19396344194126</v>
+      </c>
+      <c r="AQ39" s="19">
+        <v>147.63076286504497</v>
+      </c>
+      <c r="AR39" s="20">
+        <v>19.110583821511796</v>
+      </c>
+      <c r="AS39" s="20">
+        <v>95.745276290859991</v>
+      </c>
+      <c r="AT39" s="20">
+        <v>16.176521015266012</v>
+      </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>297</v>
       </c>
@@ -7451,8 +8067,23 @@
       <c r="AO40">
         <v>28.300421695914022</v>
       </c>
+      <c r="AP40" s="19">
+        <v>100.05485085308685</v>
+      </c>
+      <c r="AQ40" s="19">
+        <v>76.264625116461531</v>
+      </c>
+      <c r="AR40" s="20">
+        <v>6.313403888589221</v>
+      </c>
+      <c r="AS40" s="20">
+        <v>49.605003800323644</v>
+      </c>
+      <c r="AT40" s="20">
+        <v>19.443825920659048</v>
+      </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>298</v>
       </c>
@@ -7576,8 +8207,23 @@
       <c r="AO41">
         <v>28.300421695914022</v>
       </c>
+      <c r="AP41" s="19">
+        <v>84.661629488456995</v>
+      </c>
+      <c r="AQ41" s="19">
+        <v>64.324503311258283</v>
+      </c>
+      <c r="AR41" s="20">
+        <v>4.2860843950874887</v>
+      </c>
+      <c r="AS41" s="20">
+        <v>34.81335930467997</v>
+      </c>
+      <c r="AT41" s="20">
+        <v>6.0206069284432226</v>
+      </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>299</v>
       </c>
@@ -7701,8 +8347,23 @@
       <c r="AO42">
         <v>16.912524437741165</v>
       </c>
+      <c r="AP42" s="19">
+        <v>93.893751546976148</v>
+      </c>
+      <c r="AQ42" s="19">
+        <v>72.300686572995431</v>
+      </c>
+      <c r="AR42" s="20">
+        <v>6.7211686892220914</v>
+      </c>
+      <c r="AS42" s="20">
+        <v>33.816701571828119</v>
+      </c>
+      <c r="AT42" s="20">
+        <v>11.649819265971994</v>
+      </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>300</v>
       </c>
@@ -7826,8 +8487,23 @@
       <c r="AO43">
         <v>8.5279152328253378</v>
       </c>
+      <c r="AP43" s="19">
+        <v>125.30584971113446</v>
+      </c>
+      <c r="AQ43" s="19">
+        <v>106.57258633327341</v>
+      </c>
+      <c r="AR43" s="20">
+        <v>15.044668538315792</v>
+      </c>
+      <c r="AS43" s="20">
+        <v>74.856372398246364</v>
+      </c>
+      <c r="AT43" s="20">
+        <v>43.66435329912732</v>
+      </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>301</v>
       </c>
@@ -7951,8 +8627,23 @@
       <c r="AO44">
         <v>28.300421695914022</v>
       </c>
+      <c r="AP44" s="19">
+        <v>107.68296408769778</v>
+      </c>
+      <c r="AQ44" s="19">
+        <v>81.335640138408309</v>
+      </c>
+      <c r="AR44" s="20">
+        <v>19.085192394262101</v>
+      </c>
+      <c r="AS44" s="20">
+        <v>60.364766620754523</v>
+      </c>
+      <c r="AT44" s="20">
+        <v>37.211274935331069</v>
+      </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>302</v>
       </c>
@@ -8076,8 +8767,23 @@
       <c r="AO45">
         <v>1.018863591906856</v>
       </c>
+      <c r="AP45" s="19">
+        <v>118.85914765228883</v>
+      </c>
+      <c r="AQ45" s="19">
+        <v>111.53853072525203</v>
+      </c>
+      <c r="AR45" s="20">
+        <v>14.70450130221572</v>
+      </c>
+      <c r="AS45" s="20">
+        <v>72.254651037470978</v>
+      </c>
+      <c r="AT45" s="20">
+        <v>10.656014203145654</v>
+      </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>303</v>
       </c>
@@ -8201,8 +8907,23 @@
       <c r="AO46">
         <v>1.018863591906856</v>
       </c>
+      <c r="AP46" s="19">
+        <v>110.04335130194885</v>
+      </c>
+      <c r="AQ46" s="19">
+        <v>97</v>
+      </c>
+      <c r="AR46" s="20">
+        <v>13.636059732279064</v>
+      </c>
+      <c r="AS46" s="20">
+        <v>58.360815281149961</v>
+      </c>
+      <c r="AT46" s="20">
+        <v>18.789583313637436</v>
+      </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>304</v>
       </c>
@@ -8326,8 +9047,23 @@
       <c r="AO47">
         <v>8.5279152328253396</v>
       </c>
+      <c r="AP47" s="19">
+        <v>130.57054062956988</v>
+      </c>
+      <c r="AQ47" s="19">
+        <v>108.02210335528933</v>
+      </c>
+      <c r="AR47" s="20">
+        <v>13.673867490385041</v>
+      </c>
+      <c r="AS47" s="20">
+        <v>81.648809380663991</v>
+      </c>
+      <c r="AT47" s="20">
+        <v>15.126592701472084</v>
+      </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>305</v>
       </c>
@@ -8451,8 +9187,23 @@
       <c r="AO48">
         <v>16.912524437741162</v>
       </c>
+      <c r="AP48" s="19">
+        <v>96.936644250975931</v>
+      </c>
+      <c r="AQ48" s="19">
+        <v>105.15675459868693</v>
+      </c>
+      <c r="AR48" s="20">
+        <v>8.2067003607973028</v>
+      </c>
+      <c r="AS48" s="20">
+        <v>48.396737061572132</v>
+      </c>
+      <c r="AT48" s="20">
+        <v>36.968005914709892</v>
+      </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>306</v>
       </c>
@@ -8576,8 +9327,23 @@
       <c r="AO49">
         <v>27.056829901353755</v>
       </c>
+      <c r="AP49" s="19">
+        <v>94.976454647190948</v>
+      </c>
+      <c r="AQ49" s="19">
+        <v>97.16243815138435</v>
+      </c>
+      <c r="AR49" s="20">
+        <v>19.598284661543321</v>
+      </c>
+      <c r="AS49" s="20">
+        <v>45.813089132189347</v>
+      </c>
+      <c r="AT49" s="20">
+        <v>38.285065831491032</v>
+      </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>307</v>
       </c>
@@ -8701,8 +9467,23 @@
       <c r="AO50">
         <v>60.813666839028926</v>
       </c>
+      <c r="AP50" s="19">
+        <v>58.809140814751075</v>
+      </c>
+      <c r="AQ50" s="19">
+        <v>38.948031844316674</v>
+      </c>
+      <c r="AR50" s="20">
+        <v>7.0153044792287629</v>
+      </c>
+      <c r="AS50" s="20">
+        <v>9.7057693177957667</v>
+      </c>
+      <c r="AT50" s="20">
+        <v>6.7642302014627358</v>
+      </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>308</v>
       </c>
@@ -8826,8 +9607,23 @@
       <c r="AO51">
         <v>27.056829901353751</v>
       </c>
+      <c r="AP51" s="19">
+        <v>97.187658491814418</v>
+      </c>
+      <c r="AQ51" s="19">
+        <v>92.567986877984055</v>
+      </c>
+      <c r="AR51" s="20">
+        <v>6.8054286385908442</v>
+      </c>
+      <c r="AS51" s="20">
+        <v>53.823896434280215</v>
+      </c>
+      <c r="AT51" s="20">
+        <v>51.617536937012233</v>
+      </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>309</v>
       </c>
@@ -8951,8 +9747,23 @@
       <c r="AO52">
         <v>34.924173396716569</v>
       </c>
+      <c r="AP52" s="19">
+        <v>127.83688444612753</v>
+      </c>
+      <c r="AQ52" s="19">
+        <v>117.88087101094537</v>
+      </c>
+      <c r="AR52" s="20">
+        <v>28.888395095367841</v>
+      </c>
+      <c r="AS52" s="20">
+        <v>51.420206206992098</v>
+      </c>
+      <c r="AT52" s="20">
+        <v>20.795228859742295</v>
+      </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>310</v>
       </c>
@@ -9076,8 +9887,23 @@
       <c r="AO53">
         <v>26.124270521064162</v>
       </c>
+      <c r="AP53" s="19">
+        <v>50.842966570139751</v>
+      </c>
+      <c r="AQ53" s="19">
+        <v>47.717398293763203</v>
+      </c>
+      <c r="AR53" s="20">
+        <v>6.787322776986314</v>
+      </c>
+      <c r="AS53" s="20">
+        <v>16.844159029806477</v>
+      </c>
+      <c r="AT53" s="20">
+        <v>9.7250361494370754</v>
+      </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>311</v>
       </c>
@@ -9201,8 +10027,23 @@
       <c r="AO54">
         <v>31.368155914347966</v>
       </c>
+      <c r="AP54" s="19">
+        <v>51.652189630376817</v>
+      </c>
+      <c r="AQ54" s="19">
+        <v>51.948539646130037</v>
+      </c>
+      <c r="AR54" s="20">
+        <v>4.4292165365728726</v>
+      </c>
+      <c r="AS54" s="20">
+        <v>27.487215843419779</v>
+      </c>
+      <c r="AT54" s="20">
+        <v>8.3831618832607706</v>
+      </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -9326,8 +10167,23 @@
       <c r="AO55">
         <v>31.368155914347959</v>
       </c>
+      <c r="AP55" s="19">
+        <v>46.337639350504226</v>
+      </c>
+      <c r="AQ55" s="19">
+        <v>49.802095636110352</v>
+      </c>
+      <c r="AR55" s="20">
+        <v>2.38024051361255</v>
+      </c>
+      <c r="AS55" s="20">
+        <v>25.271829684140396</v>
+      </c>
+      <c r="AT55" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>313</v>
       </c>
@@ -9451,8 +10307,23 @@
       <c r="AO56">
         <v>26.124270521064162</v>
       </c>
+      <c r="AP56" s="19">
+        <v>53.43</v>
+      </c>
+      <c r="AQ56" s="19">
+        <v>51</v>
+      </c>
+      <c r="AR56" s="20">
+        <v>9.0820000000000007</v>
+      </c>
+      <c r="AS56" s="20">
+        <v>22.573</v>
+      </c>
+      <c r="AT56" s="20">
+        <v>2.5099999999999998</v>
+      </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>314</v>
       </c>
@@ -9576,8 +10447,23 @@
       <c r="AO57">
         <v>26.124270521064162</v>
       </c>
+      <c r="AP57" s="19">
+        <v>51.209696413653639</v>
+      </c>
+      <c r="AQ57" s="19">
+        <v>56.144659756647137</v>
+      </c>
+      <c r="AR57" s="20">
+        <v>4.6750677944558072</v>
+      </c>
+      <c r="AS57" s="20">
+        <v>28.793539871274888</v>
+      </c>
+      <c r="AT57" s="20">
+        <v>16.054984227129339</v>
+      </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>315</v>
       </c>
@@ -9701,8 +10587,23 @@
       <c r="AO58">
         <v>26.124270521064162</v>
       </c>
+      <c r="AP58" s="19">
+        <v>54.516666999999998</v>
+      </c>
+      <c r="AQ58" s="19">
+        <v>52</v>
+      </c>
+      <c r="AR58" s="20">
+        <v>5.8680000000000003</v>
+      </c>
+      <c r="AS58" s="20">
+        <v>29.788999999999998</v>
+      </c>
+      <c r="AT58" s="20">
+        <v>3.218</v>
+      </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>316</v>
       </c>
@@ -9826,8 +10727,23 @@
       <c r="AO59">
         <v>161.05395096397254</v>
       </c>
+      <c r="AP59" s="19">
+        <v>59.882596299465398</v>
+      </c>
+      <c r="AQ59" s="19">
+        <v>68.303452233531672</v>
+      </c>
+      <c r="AR59" s="20">
+        <v>6.9392012594762766</v>
+      </c>
+      <c r="AS59" s="20">
+        <v>38.055994608716659</v>
+      </c>
+      <c r="AT59" s="20">
+        <v>28.83384961792866</v>
+      </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>317</v>
       </c>
@@ -9951,8 +10867,23 @@
       <c r="AO60">
         <v>26.124270521064162</v>
       </c>
+      <c r="AP60" s="19">
+        <v>60.037211035700516</v>
+      </c>
+      <c r="AQ60" s="19">
+        <v>55.783822618894639</v>
+      </c>
+      <c r="AR60" s="20">
+        <v>7.0192907968364864</v>
+      </c>
+      <c r="AS60" s="20">
+        <v>34.31746458569409</v>
+      </c>
+      <c r="AT60" s="20">
+        <v>3.7469194109881889</v>
+      </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>318</v>
       </c>
@@ -10076,8 +11007,23 @@
       <c r="AO61">
         <v>35.659020275131361</v>
       </c>
+      <c r="AP61" s="19">
+        <v>66.151971554971851</v>
+      </c>
+      <c r="AQ61" s="19">
+        <v>66.138846394381105</v>
+      </c>
+      <c r="AR61" s="20">
+        <v>5.5976005484196847</v>
+      </c>
+      <c r="AS61" s="20">
+        <v>29.327922518881998</v>
+      </c>
+      <c r="AT61" s="20">
+        <v>15.848381286380912</v>
+      </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>319</v>
       </c>
@@ -10201,8 +11147,23 @@
       <c r="AO62">
         <v>26.124270521064162</v>
       </c>
+      <c r="AP62" s="19">
+        <v>60.416666999999997</v>
+      </c>
+      <c r="AQ62" s="19">
+        <v>72</v>
+      </c>
+      <c r="AR62" s="20">
+        <v>4.0170000000000003</v>
+      </c>
+      <c r="AS62" s="20">
+        <v>34.695999999999998</v>
+      </c>
+      <c r="AT62" s="20">
+        <v>24.021000000000001</v>
+      </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>320</v>
       </c>
@@ -10326,8 +11287,23 @@
       <c r="AO63">
         <v>31.368155914347962</v>
       </c>
+      <c r="AP63" s="19">
+        <v>65.167258209503771</v>
+      </c>
+      <c r="AQ63" s="19">
+        <v>92.039272848426791</v>
+      </c>
+      <c r="AR63" s="20">
+        <v>10.499356599962518</v>
+      </c>
+      <c r="AS63" s="20">
+        <v>24.63662657476625</v>
+      </c>
+      <c r="AT63" s="20">
+        <v>45.691716823188891</v>
+      </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>321</v>
       </c>
@@ -10451,8 +11427,23 @@
       <c r="AO64">
         <v>161.05395096397254</v>
       </c>
+      <c r="AP64" s="19">
+        <v>55.785344504938749</v>
+      </c>
+      <c r="AQ64" s="19">
+        <v>57.149240209401519</v>
+      </c>
+      <c r="AR64" s="20">
+        <v>3.6059341775995222</v>
+      </c>
+      <c r="AS64" s="20">
+        <v>33.218877238603142</v>
+      </c>
+      <c r="AT64" s="20">
+        <v>7.4138174592680732</v>
+      </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>322</v>
       </c>
@@ -10576,8 +11567,23 @@
       <c r="AO65">
         <v>40.627561837347535</v>
       </c>
+      <c r="AP65" s="19">
+        <v>46.602285624862226</v>
+      </c>
+      <c r="AQ65" s="19">
+        <v>42.624840706904742</v>
+      </c>
+      <c r="AR65" s="20">
+        <v>5.7191793421582036</v>
+      </c>
+      <c r="AS65" s="20">
+        <v>20.060049228462965</v>
+      </c>
+      <c r="AT65" s="20">
+        <v>10.303721264333012</v>
+      </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>323</v>
       </c>
@@ -10701,8 +11707,23 @@
       <c r="AO66">
         <v>40.627561837347535</v>
       </c>
+      <c r="AP66" s="19">
+        <v>51.613332999999997</v>
+      </c>
+      <c r="AQ66" s="19">
+        <v>52</v>
+      </c>
+      <c r="AR66" s="20">
+        <v>5.6890000000000001</v>
+      </c>
+      <c r="AS66" s="20">
+        <v>20.331</v>
+      </c>
+      <c r="AT66" s="20">
+        <v>17.73</v>
+      </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>324</v>
       </c>
@@ -10826,8 +11847,23 @@
       <c r="AO67">
         <v>109.75911743843993</v>
       </c>
+      <c r="AP67" s="19">
+        <v>62.783053895715007</v>
+      </c>
+      <c r="AQ67" s="19">
+        <v>54.955242413585992</v>
+      </c>
+      <c r="AR67" s="20">
+        <v>4.1442526615857149</v>
+      </c>
+      <c r="AS67" s="20">
+        <v>20.401399401240468</v>
+      </c>
+      <c r="AT67" s="20">
+        <v>6.3297023847683533</v>
+      </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>325</v>
       </c>
@@ -10951,8 +11987,23 @@
       <c r="AO68">
         <v>161.05395096397254</v>
       </c>
+      <c r="AP68" s="19">
+        <v>54.798468742333633</v>
+      </c>
+      <c r="AQ68" s="19">
+        <v>61.654393903897606</v>
+      </c>
+      <c r="AR68" s="20">
+        <v>6.5561916129270914</v>
+      </c>
+      <c r="AS68" s="20">
+        <v>41.992366481301104</v>
+      </c>
+      <c r="AT68" s="20">
+        <v>25.069828004586871</v>
+      </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>326</v>
       </c>
@@ -11076,8 +12127,23 @@
       <c r="AO69">
         <v>161.05395096397251</v>
       </c>
+      <c r="AP69" s="19">
+        <v>67.876308666866265</v>
+      </c>
+      <c r="AQ69" s="19">
+        <v>75.123999782265528</v>
+      </c>
+      <c r="AR69" s="20">
+        <v>8.4005664725200955</v>
+      </c>
+      <c r="AS69" s="20">
+        <v>43.555423293959677</v>
+      </c>
+      <c r="AT69" s="20">
+        <v>40.924758659481427</v>
+      </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>327</v>
       </c>
@@ -11201,8 +12267,23 @@
       <c r="AO70">
         <v>40.627561837347535</v>
       </c>
+      <c r="AP70" s="19">
+        <v>74.590115248079314</v>
+      </c>
+      <c r="AQ70" s="19">
+        <v>98.389953192581913</v>
+      </c>
+      <c r="AR70" s="20">
+        <v>10.683342701400273</v>
+      </c>
+      <c r="AS70" s="20">
+        <v>41.789381964331568</v>
+      </c>
+      <c r="AT70" s="20">
+        <v>37.705224734856721</v>
+      </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>328</v>
       </c>
@@ -11326,8 +12407,23 @@
       <c r="AO71">
         <v>9.6760642631664684</v>
       </c>
+      <c r="AP71" s="19">
+        <v>65.577387278927361</v>
+      </c>
+      <c r="AQ71" s="19">
+        <v>73.133409641712973</v>
+      </c>
+      <c r="AR71" s="20">
+        <v>4.6440784196491949</v>
+      </c>
+      <c r="AS71" s="20">
+        <v>39.019673548275705</v>
+      </c>
+      <c r="AT71" s="20">
+        <v>11.373709421740212</v>
+      </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>329</v>
       </c>
@@ -11451,8 +12547,23 @@
       <c r="AO72">
         <v>42.99257455610357</v>
       </c>
+      <c r="AP72" s="19">
+        <v>94.963855838592153</v>
+      </c>
+      <c r="AQ72" s="19">
+        <v>78.272883021420228</v>
+      </c>
+      <c r="AR72" s="20">
+        <v>10.924900846089546</v>
+      </c>
+      <c r="AS72" s="20">
+        <v>29.42660913342819</v>
+      </c>
+      <c r="AT72" s="20">
+        <v>15.473087209116841</v>
+      </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>330</v>
       </c>
@@ -11576,8 +12687,23 @@
       <c r="AO73">
         <v>42.992574556103577</v>
       </c>
+      <c r="AP73" s="19">
+        <v>84.8803709787</v>
+      </c>
+      <c r="AQ73" s="19">
+        <v>101.16236637740738</v>
+      </c>
+      <c r="AR73" s="20">
+        <v>10.995091916421195</v>
+      </c>
+      <c r="AS73" s="20">
+        <v>57.897149548741034</v>
+      </c>
+      <c r="AT73" s="20">
+        <v>36.599668138294412</v>
+      </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>331</v>
       </c>
@@ -11701,8 +12827,23 @@
       <c r="AO74">
         <v>42.992574556103577</v>
       </c>
+      <c r="AP74" s="19">
+        <v>99.559620570912102</v>
+      </c>
+      <c r="AQ74" s="19">
+        <v>91.198686763963096</v>
+      </c>
+      <c r="AR74" s="20">
+        <v>8.1380815057022087</v>
+      </c>
+      <c r="AS74" s="20">
+        <v>23.932765843900363</v>
+      </c>
+      <c r="AT74" s="20">
+        <v>15.911521492942022</v>
+      </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>332</v>
       </c>
@@ -11826,8 +12967,23 @@
       <c r="AO75">
         <v>16.386434069006469</v>
       </c>
+      <c r="AP75" s="19">
+        <v>98.186731401330178</v>
+      </c>
+      <c r="AQ75" s="19">
+        <v>74.50460767497394</v>
+      </c>
+      <c r="AR75" s="20">
+        <v>6.2878702283657883</v>
+      </c>
+      <c r="AS75" s="20">
+        <v>45.949118798977558</v>
+      </c>
+      <c r="AT75" s="20">
+        <v>3.8399436274509799</v>
+      </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>333</v>
       </c>
@@ -11951,8 +13107,23 @@
       <c r="AO76">
         <v>16.386434069006469</v>
       </c>
+      <c r="AP76" s="19">
+        <v>96.649673163613357</v>
+      </c>
+      <c r="AQ76" s="19">
+        <v>73.351546701974002</v>
+      </c>
+      <c r="AR76" s="20">
+        <v>8.6259892453057301</v>
+      </c>
+      <c r="AS76" s="20">
+        <v>44.410476715214259</v>
+      </c>
+      <c r="AT76" s="20">
+        <v>10.767981668271545</v>
+      </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>334</v>
       </c>
@@ -12076,8 +13247,23 @@
       <c r="AO77">
         <v>16.386434069006469</v>
       </c>
+      <c r="AP77" s="19">
+        <v>109.52528636992345</v>
+      </c>
+      <c r="AQ77" s="19">
+        <v>97.474234925577861</v>
+      </c>
+      <c r="AR77" s="20">
+        <v>19.373921898459656</v>
+      </c>
+      <c r="AS77" s="20">
+        <v>50.128914864038265</v>
+      </c>
+      <c r="AT77" s="20">
+        <v>22.394611633209145</v>
+      </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>335</v>
       </c>
@@ -12201,8 +13387,23 @@
       <c r="AO78">
         <v>16.386434069006469</v>
       </c>
+      <c r="AP78" s="19">
+        <v>99.391501483808398</v>
+      </c>
+      <c r="AQ78" s="19">
+        <v>84.935047020926135</v>
+      </c>
+      <c r="AR78" s="20">
+        <v>14.01244203727595</v>
+      </c>
+      <c r="AS78" s="20">
+        <v>59.428740131285352</v>
+      </c>
+      <c r="AT78" s="20">
+        <v>10.741456942787824</v>
+      </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>336</v>
       </c>
@@ -12326,8 +13527,23 @@
       <c r="AO79">
         <v>34.924173396716569</v>
       </c>
+      <c r="AP79" s="19">
+        <v>103.65039597047844</v>
+      </c>
+      <c r="AQ79" s="19">
+        <v>104.24001927795304</v>
+      </c>
+      <c r="AR79" s="20">
+        <v>6.150191105853489</v>
+      </c>
+      <c r="AS79" s="20">
+        <v>18.663453811777082</v>
+      </c>
+      <c r="AT79" s="20">
+        <v>5.9318701016473891</v>
+      </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>337</v>
       </c>
@@ -12451,8 +13667,23 @@
       <c r="AO80">
         <v>35.659020275131361</v>
       </c>
+      <c r="AP80" s="19">
+        <v>59.476666999999999</v>
+      </c>
+      <c r="AQ80" s="19">
+        <v>58</v>
+      </c>
+      <c r="AR80" s="20">
+        <v>4.9260000000000002</v>
+      </c>
+      <c r="AS80" s="20">
+        <v>32.081000000000003</v>
+      </c>
+      <c r="AT80" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>338</v>
       </c>
@@ -12576,8 +13807,23 @@
       <c r="AO81">
         <v>36.712908112368659</v>
       </c>
+      <c r="AP81" s="19">
+        <v>76.806058822913286</v>
+      </c>
+      <c r="AQ81" s="19">
+        <v>64.153692679403193</v>
+      </c>
+      <c r="AR81" s="20">
+        <v>6.6387105935686366</v>
+      </c>
+      <c r="AS81" s="20">
+        <v>19.115646319774829</v>
+      </c>
+      <c r="AT81" s="20">
+        <v>6.8727577129050728</v>
+      </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>339</v>
       </c>
@@ -12701,8 +13947,23 @@
       <c r="AO82">
         <v>35.659020275131361</v>
       </c>
+      <c r="AP82" s="19">
+        <v>75.783332999999999</v>
+      </c>
+      <c r="AQ82" s="19">
+        <v>62</v>
+      </c>
+      <c r="AR82" s="20">
+        <v>5.0510000000000002</v>
+      </c>
+      <c r="AS82" s="20">
+        <v>22.702999999999999</v>
+      </c>
+      <c r="AT82" s="20">
+        <v>3.1869999999999998</v>
+      </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>340</v>
       </c>
@@ -12826,8 +14087,23 @@
       <c r="AO83">
         <v>35.659020275131361</v>
       </c>
+      <c r="AP83" s="19">
+        <v>83.879649223283053</v>
+      </c>
+      <c r="AQ83" s="19">
+        <v>99.500925495983154</v>
+      </c>
+      <c r="AR83" s="20">
+        <v>7.6634190493152596</v>
+      </c>
+      <c r="AS83" s="20">
+        <v>33.016017613047268</v>
+      </c>
+      <c r="AT83" s="20">
+        <v>26.696158530146999</v>
+      </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>341</v>
       </c>
@@ -12951,8 +14227,23 @@
       <c r="AO84">
         <v>11.296435531794799</v>
       </c>
+      <c r="AP84" s="19">
+        <v>106.67997324041323</v>
+      </c>
+      <c r="AQ84" s="19">
+        <v>109.5314894208249</v>
+      </c>
+      <c r="AR84" s="20">
+        <v>12.592432733912906</v>
+      </c>
+      <c r="AS84" s="20">
+        <v>40.570559733635029</v>
+      </c>
+      <c r="AT84" s="20">
+        <v>40.759114703664004</v>
+      </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>342</v>
       </c>
@@ -13076,8 +14367,23 @@
       <c r="AO85">
         <v>25.313043898665637</v>
       </c>
+      <c r="AP85" s="19">
+        <v>80.941402472398693</v>
+      </c>
+      <c r="AQ85" s="19">
+        <v>116.42013957233604</v>
+      </c>
+      <c r="AR85" s="20">
+        <v>10.244650568130982</v>
+      </c>
+      <c r="AS85" s="20">
+        <v>64.100990856222595</v>
+      </c>
+      <c r="AT85" s="20">
+        <v>49.369800339983897</v>
+      </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>343</v>
       </c>
@@ -13201,8 +14507,23 @@
       <c r="AO86">
         <v>25.313043898665637</v>
       </c>
+      <c r="AP86" s="19">
+        <v>82.182829882011717</v>
+      </c>
+      <c r="AQ86" s="19">
+        <v>126.95236374150643</v>
+      </c>
+      <c r="AR86" s="20">
+        <v>14.202593519589419</v>
+      </c>
+      <c r="AS86" s="20">
+        <v>57.72882839381235</v>
+      </c>
+      <c r="AT86" s="20">
+        <v>49.018183316466683</v>
+      </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>344</v>
       </c>
@@ -13326,8 +14647,23 @@
       <c r="AO87">
         <v>11.296435531794799</v>
       </c>
+      <c r="AP87" s="19">
+        <v>94.511264665564994</v>
+      </c>
+      <c r="AQ87" s="19">
+        <v>88.534838342249486</v>
+      </c>
+      <c r="AR87" s="20">
+        <v>8.5548066082215293</v>
+      </c>
+      <c r="AS87" s="20">
+        <v>24.479437759665391</v>
+      </c>
+      <c r="AT87" s="20">
+        <v>9.6356629508257967</v>
+      </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>345</v>
       </c>
@@ -13451,8 +14787,23 @@
       <c r="AO88">
         <v>23.059569746872945</v>
       </c>
+      <c r="AP88" s="19">
+        <v>127.99258080508419</v>
+      </c>
+      <c r="AQ88" s="19">
+        <v>147.33864443567481</v>
+      </c>
+      <c r="AR88" s="20">
+        <v>30.650480975401216</v>
+      </c>
+      <c r="AS88" s="20">
+        <v>68.46028656932387</v>
+      </c>
+      <c r="AT88" s="20">
+        <v>37.89630942515128</v>
+      </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>346</v>
       </c>
@@ -13576,8 +14927,23 @@
       <c r="AO89">
         <v>23.059569746872945</v>
       </c>
+      <c r="AP89" s="19">
+        <v>119.5745632693433</v>
+      </c>
+      <c r="AQ89" s="19">
+        <v>89.672438188234366</v>
+      </c>
+      <c r="AR89" s="20">
+        <v>8.1416201924959068</v>
+      </c>
+      <c r="AS89" s="20">
+        <v>58.830214815809029</v>
+      </c>
+      <c r="AT89" s="20">
+        <v>12.799543171764286</v>
+      </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>347</v>
       </c>
@@ -13701,8 +15067,23 @@
       <c r="AO90">
         <v>23.059569746872945</v>
       </c>
+      <c r="AP90" s="19">
+        <v>131.58494949270775</v>
+      </c>
+      <c r="AQ90" s="19">
+        <v>98.335406437534104</v>
+      </c>
+      <c r="AR90" s="20">
+        <v>17.161424804509913</v>
+      </c>
+      <c r="AS90" s="20">
+        <v>74.126517912347694</v>
+      </c>
+      <c r="AT90" s="20">
+        <v>30.87236242953265</v>
+      </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>348</v>
       </c>
@@ -13826,8 +15207,23 @@
       <c r="AO91">
         <v>23.059569746872949</v>
       </c>
+      <c r="AP91" s="19">
+        <v>120.85676959702596</v>
+      </c>
+      <c r="AQ91" s="19">
+        <v>100.68828300521686</v>
+      </c>
+      <c r="AR91" s="20">
+        <v>7.6323799550664484</v>
+      </c>
+      <c r="AS91" s="20">
+        <v>72.790150546437673</v>
+      </c>
+      <c r="AT91" s="20">
+        <v>30.381703172004112</v>
+      </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>349</v>
       </c>
@@ -13951,8 +15347,23 @@
       <c r="AO92">
         <v>8.8382678910702968</v>
       </c>
+      <c r="AP92" s="19">
+        <v>125.01686976354307</v>
+      </c>
+      <c r="AQ92" s="19">
+        <v>90.978637176916948</v>
+      </c>
+      <c r="AR92" s="20">
+        <v>7.5728657655909801</v>
+      </c>
+      <c r="AS92" s="20">
+        <v>69.51500416046909</v>
+      </c>
+      <c r="AT92" s="20">
+        <v>7.0073999223953969</v>
+      </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>350</v>
       </c>
@@ -14076,8 +15487,23 @@
       <c r="AO93">
         <v>74.787417282352664</v>
       </c>
+      <c r="AP93" s="19">
+        <v>105.70865139919674</v>
+      </c>
+      <c r="AQ93" s="19">
+        <v>108.65570765923746</v>
+      </c>
+      <c r="AR93" s="20">
+        <v>24.660310182147299</v>
+      </c>
+      <c r="AS93" s="20">
+        <v>76.125826213372576</v>
+      </c>
+      <c r="AT93" s="20">
+        <v>12.142657891164159</v>
+      </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>351</v>
       </c>
@@ -14201,8 +15627,23 @@
       <c r="AO94">
         <v>74.787417282352664</v>
       </c>
+      <c r="AP94" s="19">
+        <v>108.88942550623683</v>
+      </c>
+      <c r="AQ94" s="19">
+        <v>106.50278257532143</v>
+      </c>
+      <c r="AR94" s="20">
+        <v>14.141519925797994</v>
+      </c>
+      <c r="AS94" s="20">
+        <v>73.305201656751763</v>
+      </c>
+      <c r="AT94" s="20">
+        <v>29.289525522932259</v>
+      </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>352</v>
       </c>
@@ -14326,8 +15767,23 @@
       <c r="AO95">
         <v>8.8382678910702968</v>
       </c>
+      <c r="AP95" s="19">
+        <v>108.10863105496259</v>
+      </c>
+      <c r="AQ95" s="19">
+        <v>74.493433083956774</v>
+      </c>
+      <c r="AR95" s="20">
+        <v>8.3857520421169305</v>
+      </c>
+      <c r="AS95" s="20">
+        <v>77.603462599057892</v>
+      </c>
+      <c r="AT95" s="20">
+        <v>8.2367553560543101</v>
+      </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>353</v>
       </c>
@@ -14451,8 +15907,23 @@
       <c r="AO96">
         <v>74.787417282352664</v>
       </c>
+      <c r="AP96" s="19">
+        <v>80.226904310927424</v>
+      </c>
+      <c r="AQ96" s="19">
+        <v>89.148784923127792</v>
+      </c>
+      <c r="AR96" s="20">
+        <v>5.017067691629471</v>
+      </c>
+      <c r="AS96" s="20">
+        <v>57.889933013721283</v>
+      </c>
+      <c r="AT96" s="20">
+        <v>25.021743814404584</v>
+      </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>354</v>
       </c>
@@ -14576,8 +16047,23 @@
       <c r="AO97">
         <v>74.787417282352664</v>
       </c>
+      <c r="AP97" s="19">
+        <v>82.760102341763599</v>
+      </c>
+      <c r="AQ97" s="19">
+        <v>79.890589258674567</v>
+      </c>
+      <c r="AR97" s="20">
+        <v>5.0533271583062156</v>
+      </c>
+      <c r="AS97" s="20">
+        <v>49.624250910145307</v>
+      </c>
+      <c r="AT97" s="20">
+        <v>9.0197099670307264</v>
+      </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>355</v>
       </c>
@@ -14701,8 +16187,23 @@
       <c r="AO98">
         <v>74.787417282352664</v>
       </c>
+      <c r="AP98" s="19">
+        <v>74.804207818302373</v>
+      </c>
+      <c r="AQ98" s="19">
+        <v>53.08636292713372</v>
+      </c>
+      <c r="AR98" s="20">
+        <v>8.1480722226556406</v>
+      </c>
+      <c r="AS98" s="20">
+        <v>43.080619304883761</v>
+      </c>
+      <c r="AT98" s="20">
+        <v>9.1889024808862541</v>
+      </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>356</v>
       </c>
@@ -14826,8 +16327,23 @@
       <c r="AO99">
         <v>27.456858878671596</v>
       </c>
+      <c r="AP99" s="19">
+        <v>70.666670089679187</v>
+      </c>
+      <c r="AQ99" s="19">
+        <v>58.327097522014682</v>
+      </c>
+      <c r="AR99" s="20">
+        <v>5.791485591700452</v>
+      </c>
+      <c r="AS99" s="20">
+        <v>24.753474040840338</v>
+      </c>
+      <c r="AT99" s="20">
+        <v>5.8076730697146024</v>
+      </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>357</v>
       </c>
@@ -14951,8 +16467,23 @@
       <c r="AO100">
         <v>31.443288878367035</v>
       </c>
+      <c r="AP100" s="19">
+        <v>64.454394789379634</v>
+      </c>
+      <c r="AQ100" s="19">
+        <v>47.300592123650496</v>
+      </c>
+      <c r="AR100" s="20">
+        <v>5.043246599026344</v>
+      </c>
+      <c r="AS100" s="20">
+        <v>18.421031997147562</v>
+      </c>
+      <c r="AT100" s="20">
+        <v>9.6879359109948169</v>
+      </c>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>358</v>
       </c>
@@ -15076,8 +16607,23 @@
       <c r="AO101">
         <v>27.456858878671603</v>
       </c>
+      <c r="AP101" s="19">
+        <v>80.5854739932618</v>
+      </c>
+      <c r="AQ101" s="19">
+        <v>57.73185452387645</v>
+      </c>
+      <c r="AR101" s="20">
+        <v>4.4652883678440931</v>
+      </c>
+      <c r="AS101" s="20">
+        <v>34.282705737218528</v>
+      </c>
+      <c r="AT101" s="20">
+        <v>12.21321872169649</v>
+      </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>359</v>
       </c>
@@ -15201,8 +16747,23 @@
       <c r="AO102">
         <v>59.92040015325054</v>
       </c>
+      <c r="AP102" s="19">
+        <v>63.77822500543504</v>
+      </c>
+      <c r="AQ102" s="19">
+        <v>50.164326172793082</v>
+      </c>
+      <c r="AR102" s="20">
+        <v>7.3045075385447022</v>
+      </c>
+      <c r="AS102" s="20">
+        <v>23.806625088135757</v>
+      </c>
+      <c r="AT102" s="20">
+        <v>6.4725805913321421</v>
+      </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>360</v>
       </c>
@@ -15326,8 +16887,23 @@
       <c r="AO103">
         <v>59.92040015325054</v>
       </c>
+      <c r="AP103" s="19">
+        <v>81.668618762238253</v>
+      </c>
+      <c r="AQ103" s="19">
+        <v>87</v>
+      </c>
+      <c r="AR103" s="20">
+        <v>34.194249434871217</v>
+      </c>
+      <c r="AS103" s="20">
+        <v>58.219347934037422</v>
+      </c>
+      <c r="AT103" s="20">
+        <v>35.844622901611999</v>
+      </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>361</v>
       </c>
@@ -15451,8 +17027,23 @@
       <c r="AO104">
         <v>5.3926188771802082</v>
       </c>
+      <c r="AP104" s="19">
+        <v>90.015107946215494</v>
+      </c>
+      <c r="AQ104" s="19">
+        <v>94.857651933701661</v>
+      </c>
+      <c r="AR104" s="20">
+        <v>22.999500524861876</v>
+      </c>
+      <c r="AS104" s="20">
+        <v>64.817206712707147</v>
+      </c>
+      <c r="AT104" s="20">
+        <v>50.686218922651918</v>
+      </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>362</v>
       </c>
@@ -15576,8 +17167,23 @@
       <c r="AO105">
         <v>5.3926188771802082</v>
       </c>
+      <c r="AP105" s="19">
+        <v>84.044627511282513</v>
+      </c>
+      <c r="AQ105" s="19">
+        <v>63.084839189722722</v>
+      </c>
+      <c r="AR105" s="20">
+        <v>13.030582303276946</v>
+      </c>
+      <c r="AS105" s="20">
+        <v>58.943233531751993</v>
+      </c>
+      <c r="AT105" s="20">
+        <v>18.25112875451757</v>
+      </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>363</v>
       </c>
@@ -15701,8 +17307,23 @@
       <c r="AO106">
         <v>5.3926188771802082</v>
       </c>
+      <c r="AP106" s="19">
+        <v>79.607494047168842</v>
+      </c>
+      <c r="AQ106" s="19">
+        <v>87.157502703834211</v>
+      </c>
+      <c r="AR106" s="20">
+        <v>9.4401870006628794</v>
+      </c>
+      <c r="AS106" s="20">
+        <v>45.566137285001574</v>
+      </c>
+      <c r="AT106" s="20">
+        <v>19.502968426194048</v>
+      </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>364</v>
       </c>
@@ -15826,8 +17447,23 @@
       <c r="AO107">
         <v>5.3926188771802082</v>
       </c>
+      <c r="AP107" s="19">
+        <v>80.856608910638187</v>
+      </c>
+      <c r="AQ107" s="19">
+        <v>85.091753810297774</v>
+      </c>
+      <c r="AR107" s="20">
+        <v>7.8173713085344527</v>
+      </c>
+      <c r="AS107" s="20">
+        <v>43.94529209727375</v>
+      </c>
+      <c r="AT107" s="20">
+        <v>16.983915544788257</v>
+      </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>365</v>
       </c>
@@ -15951,8 +17587,23 @@
       <c r="AO108">
         <v>5.3926188771802082</v>
       </c>
+      <c r="AP108" s="19">
+        <v>85.054655999465922</v>
+      </c>
+      <c r="AQ108" s="19">
+        <v>77.388217002741612</v>
+      </c>
+      <c r="AR108" s="20">
+        <v>8.4689765538768285</v>
+      </c>
+      <c r="AS108" s="20">
+        <v>61.618528039213324</v>
+      </c>
+      <c r="AT108" s="20">
+        <v>8.3720538946319003</v>
+      </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>366</v>
       </c>
@@ -16076,8 +17727,23 @@
       <c r="AO109">
         <v>74.269065597738617</v>
       </c>
+      <c r="AP109" s="19">
+        <v>82.505430528854959</v>
+      </c>
+      <c r="AQ109" s="19">
+        <v>89.5182770936201</v>
+      </c>
+      <c r="AR109" s="20">
+        <v>15.158268291730915</v>
+      </c>
+      <c r="AS109" s="20">
+        <v>49.077882706532165</v>
+      </c>
+      <c r="AT109" s="20">
+        <v>23.569234294189982</v>
+      </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>367</v>
       </c>
@@ -16201,8 +17867,23 @@
       <c r="AO110">
         <v>74.269065597738617</v>
       </c>
+      <c r="AP110" s="19">
+        <v>115.28759534981175</v>
+      </c>
+      <c r="AQ110" s="19">
+        <v>125</v>
+      </c>
+      <c r="AR110" s="20">
+        <v>21.415938852340563</v>
+      </c>
+      <c r="AS110" s="20">
+        <v>46.679081187968215</v>
+      </c>
+      <c r="AT110" s="20">
+        <v>55.018280031942815</v>
+      </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>368</v>
       </c>
@@ -16326,8 +18007,23 @@
       <c r="AO111">
         <v>5.3926188771802082</v>
       </c>
+      <c r="AP111" s="19">
+        <v>104.35987774013701</v>
+      </c>
+      <c r="AQ111" s="19">
+        <v>107</v>
+      </c>
+      <c r="AR111" s="20">
+        <v>16.712402431901452</v>
+      </c>
+      <c r="AS111" s="20">
+        <v>45.363338023681834</v>
+      </c>
+      <c r="AT111" s="20">
+        <v>43.40460160356821</v>
+      </c>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>369</v>
       </c>
@@ -16451,8 +18147,23 @@
       <c r="AO112">
         <v>5.3926188771802082</v>
       </c>
+      <c r="AP112" s="19">
+        <v>86.649145790551145</v>
+      </c>
+      <c r="AQ112" s="19">
+        <v>80.268007169261793</v>
+      </c>
+      <c r="AR112" s="20">
+        <v>13.650675702923717</v>
+      </c>
+      <c r="AS112" s="20">
+        <v>31.088040943206018</v>
+      </c>
+      <c r="AT112" s="20">
+        <v>32.519679959672892</v>
+      </c>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>370</v>
       </c>
@@ -16576,8 +18287,23 @@
       <c r="AO113">
         <v>12.877223362110483</v>
       </c>
+      <c r="AP113" s="19">
+        <v>118.25426749398191</v>
+      </c>
+      <c r="AQ113" s="19">
+        <v>147.62944841965597</v>
+      </c>
+      <c r="AR113" s="20">
+        <v>7.3391260721224434</v>
+      </c>
+      <c r="AS113" s="20">
+        <v>33.964486554044463</v>
+      </c>
+      <c r="AT113" s="20">
+        <v>9.2230480500402816</v>
+      </c>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>371</v>
       </c>
@@ -16701,8 +18427,23 @@
       <c r="AO114">
         <v>12.877223362110485</v>
       </c>
+      <c r="AP114" s="19">
+        <v>110.7803228851913</v>
+      </c>
+      <c r="AQ114" s="19">
+        <v>131.03215054866166</v>
+      </c>
+      <c r="AR114" s="20">
+        <v>12.830070274843605</v>
+      </c>
+      <c r="AS114" s="20">
+        <v>41.778537585888614</v>
+      </c>
+      <c r="AT114" s="20">
+        <v>36.951250384575935</v>
+      </c>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>372</v>
       </c>
@@ -16826,8 +18567,23 @@
       <c r="AO115">
         <v>12.877223362110485</v>
       </c>
+      <c r="AP115" s="19">
+        <v>101.26305740708055</v>
+      </c>
+      <c r="AQ115" s="19">
+        <v>123</v>
+      </c>
+      <c r="AR115" s="20">
+        <v>12.970253335434395</v>
+      </c>
+      <c r="AS115" s="20">
+        <v>74.255254070805776</v>
+      </c>
+      <c r="AT115" s="20">
+        <v>54.900576163462553</v>
+      </c>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>373</v>
       </c>
@@ -16951,8 +18707,23 @@
       <c r="AO116">
         <v>12.877223362110485</v>
       </c>
+      <c r="AP116" s="19">
+        <v>105.54352778029862</v>
+      </c>
+      <c r="AQ116" s="19">
+        <v>154.06954914467963</v>
+      </c>
+      <c r="AR116" s="20">
+        <v>11.510150732096259</v>
+      </c>
+      <c r="AS116" s="20">
+        <v>61.116783089301265</v>
+      </c>
+      <c r="AT116" s="20">
+        <v>47.062449260655242</v>
+      </c>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>374</v>
       </c>
@@ -17076,8 +18847,23 @@
       <c r="AO117">
         <v>55.146050668679344</v>
       </c>
+      <c r="AP117" s="19">
+        <v>82.630676272074652</v>
+      </c>
+      <c r="AQ117" s="19">
+        <v>78.239398925878376</v>
+      </c>
+      <c r="AR117" s="20">
+        <v>6.9393124988698238</v>
+      </c>
+      <c r="AS117" s="20">
+        <v>48.215882877344022</v>
+      </c>
+      <c r="AT117" s="20">
+        <v>14.115508119202191</v>
+      </c>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>375</v>
       </c>
@@ -17201,8 +18987,23 @@
       <c r="AO118">
         <v>2.810137899008001</v>
       </c>
+      <c r="AP118" s="19">
+        <v>64.323206126553671</v>
+      </c>
+      <c r="AQ118" s="19">
+        <v>60.534969803233977</v>
+      </c>
+      <c r="AR118" s="20">
+        <v>6.317752873563216</v>
+      </c>
+      <c r="AS118" s="20">
+        <v>51.310254198324571</v>
+      </c>
+      <c r="AT118" s="20">
+        <v>19.043698188194035</v>
+      </c>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>376</v>
       </c>
@@ -17326,8 +19127,23 @@
       <c r="AO119">
         <v>74.269065597738617</v>
       </c>
+      <c r="AP119" s="19">
+        <v>71.403473694304537</v>
+      </c>
+      <c r="AQ119" s="19">
+        <v>50.376130530432654</v>
+      </c>
+      <c r="AR119" s="20">
+        <v>6.1843085553654351</v>
+      </c>
+      <c r="AS119" s="20">
+        <v>28.282232229283792</v>
+      </c>
+      <c r="AT119" s="20">
+        <v>4.2167444329014909</v>
+      </c>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>377</v>
       </c>
@@ -17451,8 +19267,23 @@
       <c r="AO120">
         <v>74.269065597738617</v>
       </c>
+      <c r="AP120" s="19">
+        <v>63.29003209519955</v>
+      </c>
+      <c r="AQ120" s="19">
+        <v>56.25593449767242</v>
+      </c>
+      <c r="AR120" s="20">
+        <v>4.8219422727722909</v>
+      </c>
+      <c r="AS120" s="20">
+        <v>44.694454372874659</v>
+      </c>
+      <c r="AT120" s="20">
+        <v>8.6236901185248769</v>
+      </c>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>378</v>
       </c>
@@ -17576,8 +19407,23 @@
       <c r="AO121">
         <v>55.146050668679329</v>
       </c>
+      <c r="AP121" s="19">
+        <v>94.201100399023517</v>
+      </c>
+      <c r="AQ121" s="19">
+        <v>112.78844260483433</v>
+      </c>
+      <c r="AR121" s="20">
+        <v>7.0946916554481687</v>
+      </c>
+      <c r="AS121" s="20">
+        <v>36.944879583676581</v>
+      </c>
+      <c r="AT121" s="20">
+        <v>24.505717113062328</v>
+      </c>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>379</v>
       </c>
@@ -17701,8 +19547,23 @@
       <c r="AO122">
         <v>2.810137899008001</v>
       </c>
+      <c r="AP122" s="19">
+        <v>56.245231389352689</v>
+      </c>
+      <c r="AQ122" s="19">
+        <v>37.176373931487767</v>
+      </c>
+      <c r="AR122" s="20">
+        <v>4.1765916940527461</v>
+      </c>
+      <c r="AS122" s="20">
+        <v>56.143454883521919</v>
+      </c>
+      <c r="AT122" s="20">
+        <v>11.001991665832186</v>
+      </c>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>380</v>
       </c>
@@ -17826,8 +19687,23 @@
       <c r="AO123">
         <v>2.8101378990080002</v>
       </c>
+      <c r="AP123" s="19">
+        <v>62.027503371613868</v>
+      </c>
+      <c r="AQ123" s="19">
+        <v>52</v>
+      </c>
+      <c r="AR123" s="20">
+        <v>8.5486056057203097</v>
+      </c>
+      <c r="AS123" s="20">
+        <v>44.642461727093547</v>
+      </c>
+      <c r="AT123" s="20">
+        <v>21.165471810973091</v>
+      </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>381</v>
       </c>
@@ -17951,8 +19827,23 @@
       <c r="AO124">
         <v>53.227268214608422</v>
       </c>
+      <c r="AP124" s="19">
+        <v>118.88778653166182</v>
+      </c>
+      <c r="AQ124" s="19">
+        <v>145.39741163749409</v>
+      </c>
+      <c r="AR124" s="20">
+        <v>7.0256084003514223</v>
+      </c>
+      <c r="AS124" s="20">
+        <v>45.86824217746841</v>
+      </c>
+      <c r="AT124" s="20">
+        <v>37.641522369399205</v>
+      </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>382</v>
       </c>
@@ -18076,8 +19967,23 @@
       <c r="AO125">
         <v>53.227268214608422</v>
       </c>
+      <c r="AP125" s="19">
+        <v>105.19230901878963</v>
+      </c>
+      <c r="AQ125" s="19">
+        <v>125.71316042267051</v>
+      </c>
+      <c r="AR125" s="20">
+        <v>9.941981863592698</v>
+      </c>
+      <c r="AS125" s="20">
+        <v>45.16353594620557</v>
+      </c>
+      <c r="AT125" s="20">
+        <v>32.557461325648411</v>
+      </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>383</v>
       </c>
@@ -18201,8 +20107,23 @@
       <c r="AO126">
         <v>53.227268214608422</v>
       </c>
+      <c r="AP126" s="19">
+        <v>100.30637499655863</v>
+      </c>
+      <c r="AQ126" s="19">
+        <v>109.67772366913381</v>
+      </c>
+      <c r="AR126" s="20">
+        <v>3.0934780976123379</v>
+      </c>
+      <c r="AS126" s="20">
+        <v>22.662736056486331</v>
+      </c>
+      <c r="AT126" s="20">
+        <v>11.680778065095538</v>
+      </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>384</v>
       </c>
@@ -18326,8 +20247,23 @@
       <c r="AO127">
         <v>53.227268214608422</v>
       </c>
+      <c r="AP127" s="19">
+        <v>90.279500343328678</v>
+      </c>
+      <c r="AQ127" s="19">
+        <v>92.138354253835431</v>
+      </c>
+      <c r="AR127" s="20">
+        <v>4.6519974740430809</v>
+      </c>
+      <c r="AS127" s="20">
+        <v>18.900179048504572</v>
+      </c>
+      <c r="AT127" s="20">
+        <v>7.4125120564078726</v>
+      </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>385</v>
       </c>
@@ -18451,8 +20387,23 @@
       <c r="AO128">
         <v>34.585938540442498</v>
       </c>
+      <c r="AP128" s="19">
+        <v>70.538818657294428</v>
+      </c>
+      <c r="AQ128" s="19">
+        <v>47.819789598102375</v>
+      </c>
+      <c r="AR128" s="20">
+        <v>11.68225096169996</v>
+      </c>
+      <c r="AS128" s="20">
+        <v>22.155348657661765</v>
+      </c>
+      <c r="AT128" s="20">
+        <v>10.368360380386797</v>
+      </c>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>386</v>
       </c>
@@ -18576,8 +20527,23 @@
       <c r="AO129">
         <v>34.585938540442491</v>
       </c>
+      <c r="AP129" s="19">
+        <v>96.710663573034367</v>
+      </c>
+      <c r="AQ129" s="19">
+        <v>64.583148507263374</v>
+      </c>
+      <c r="AR129" s="20">
+        <v>16.570470940696957</v>
+      </c>
+      <c r="AS129" s="20">
+        <v>36.221789925334136</v>
+      </c>
+      <c r="AT129" s="20">
+        <v>9.3379946584298121</v>
+      </c>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>387</v>
       </c>
@@ -18701,8 +20667,23 @@
       <c r="AO130">
         <v>6.2655792696599351</v>
       </c>
+      <c r="AP130" s="19">
+        <v>68.461279204257579</v>
+      </c>
+      <c r="AQ130" s="19">
+        <v>75.799800564570944</v>
+      </c>
+      <c r="AR130" s="20">
+        <v>9.1877767811518627</v>
+      </c>
+      <c r="AS130" s="20">
+        <v>54.551559495755797</v>
+      </c>
+      <c r="AT130" s="20">
+        <v>42.531170388303757</v>
+      </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>388</v>
       </c>
@@ -18826,8 +20807,23 @@
       <c r="AO131">
         <v>6.2655792696599351</v>
       </c>
+      <c r="AP131" s="19">
+        <v>80.045506401108881</v>
+      </c>
+      <c r="AQ131" s="19">
+        <v>87.744491400935615</v>
+      </c>
+      <c r="AR131" s="20">
+        <v>11.951475234845235</v>
+      </c>
+      <c r="AS131" s="20">
+        <v>74.909376641280033</v>
+      </c>
+      <c r="AT131" s="20">
+        <v>27.802108492093982</v>
+      </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>389</v>
       </c>
@@ -18951,8 +20947,23 @@
       <c r="AO132">
         <v>6.2655792696599351</v>
       </c>
+      <c r="AP132" s="19">
+        <v>88.760095204463255</v>
+      </c>
+      <c r="AQ132" s="19">
+        <v>104.96030131826743</v>
+      </c>
+      <c r="AR132" s="20">
+        <v>13.490617269303202</v>
+      </c>
+      <c r="AS132" s="20">
+        <v>80.314978323917146</v>
+      </c>
+      <c r="AT132" s="20">
+        <v>35.781009020715622</v>
+      </c>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>390</v>
       </c>
@@ -19076,8 +21087,23 @@
       <c r="AO133">
         <v>12.562281413148156</v>
       </c>
+      <c r="AP133" s="19">
+        <v>97.293743724882319</v>
+      </c>
+      <c r="AQ133" s="19">
+        <v>96</v>
+      </c>
+      <c r="AR133" s="20">
+        <v>8.9815667144616995</v>
+      </c>
+      <c r="AS133" s="20">
+        <v>73.062084274087695</v>
+      </c>
+      <c r="AT133" s="20">
+        <v>25.832808308257775</v>
+      </c>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>391</v>
       </c>
@@ -19201,8 +21227,23 @@
       <c r="AO134">
         <v>12.562281413148156</v>
       </c>
+      <c r="AP134" s="19">
+        <v>95.259907350499091</v>
+      </c>
+      <c r="AQ134" s="19">
+        <v>72.114839511285979</v>
+      </c>
+      <c r="AR134" s="20">
+        <v>18.930333394077444</v>
+      </c>
+      <c r="AS134" s="20">
+        <v>74.300284075377903</v>
+      </c>
+      <c r="AT134" s="20">
+        <v>14.748138405466968</v>
+      </c>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>392</v>
       </c>
@@ -19326,8 +21367,23 @@
       <c r="AO135">
         <v>92.15588553264017</v>
       </c>
+      <c r="AP135" s="19">
+        <v>61.567381744275295</v>
+      </c>
+      <c r="AQ135" s="19">
+        <v>48.647500827821595</v>
+      </c>
+      <c r="AR135" s="20">
+        <v>7.1040947876956002</v>
+      </c>
+      <c r="AS135" s="20">
+        <v>16.746492388286537</v>
+      </c>
+      <c r="AT135" s="20">
+        <v>11.252121761943979</v>
+      </c>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>393</v>
       </c>
@@ -19451,8 +21507,23 @@
       <c r="AO136">
         <v>92.155885532640184</v>
       </c>
+      <c r="AP136" s="19">
+        <v>57.24679908177913</v>
+      </c>
+      <c r="AQ136" s="19">
+        <v>44.251523047277502</v>
+      </c>
+      <c r="AR136" s="20">
+        <v>7.6494903418412292</v>
+      </c>
+      <c r="AS136" s="20">
+        <v>34.958124225246003</v>
+      </c>
+      <c r="AT136" s="20">
+        <v>7.5423218431595966</v>
+      </c>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>394</v>
       </c>
@@ -19576,8 +21647,23 @@
       <c r="AO137">
         <v>115.72544915562123</v>
       </c>
+      <c r="AP137" s="19">
+        <v>55.598059513244273</v>
+      </c>
+      <c r="AQ137" s="19">
+        <v>40.462186865534868</v>
+      </c>
+      <c r="AR137" s="20">
+        <v>6.1171612617808053</v>
+      </c>
+      <c r="AS137" s="20">
+        <v>53.020859396601438</v>
+      </c>
+      <c r="AT137" s="20">
+        <v>10.048040720317895</v>
+      </c>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>395</v>
       </c>
@@ -19701,8 +21787,23 @@
       <c r="AO138">
         <v>89.838405955118787</v>
       </c>
+      <c r="AP138" s="19">
+        <v>52.057872076960898</v>
+      </c>
+      <c r="AQ138" s="19">
+        <v>28.480133414095011</v>
+      </c>
+      <c r="AR138" s="20">
+        <v>5.1041063300897553</v>
+      </c>
+      <c r="AS138" s="20">
+        <v>47.702353665347729</v>
+      </c>
+      <c r="AT138" s="20">
+        <v>3.9756768051414779</v>
+      </c>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>396</v>
       </c>
@@ -19826,8 +21927,23 @@
       <c r="AO139">
         <v>115.72544915562123</v>
       </c>
+      <c r="AP139" s="19">
+        <v>83.442379796552203</v>
+      </c>
+      <c r="AQ139" s="19">
+        <v>92.143122020130676</v>
+      </c>
+      <c r="AR139" s="20">
+        <v>23.597189232738831</v>
+      </c>
+      <c r="AS139" s="20">
+        <v>79.399259535581848</v>
+      </c>
+      <c r="AT139" s="20">
+        <v>50.397886257284121</v>
+      </c>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>397</v>
       </c>
@@ -19951,8 +22067,23 @@
       <c r="AO140">
         <v>3.043448325391632</v>
       </c>
+      <c r="AP140" s="19">
+        <v>60.664419529486636</v>
+      </c>
+      <c r="AQ140" s="19">
+        <v>50.674006216826996</v>
+      </c>
+      <c r="AR140" s="20">
+        <v>7.6999024356454502</v>
+      </c>
+      <c r="AS140" s="20">
+        <v>37.19389301516108</v>
+      </c>
+      <c r="AT140" s="20">
+        <v>6.8671056167906297</v>
+      </c>
     </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>398</v>
       </c>
@@ -20076,8 +22207,23 @@
       <c r="AO141">
         <v>3.043448325391632</v>
       </c>
+      <c r="AP141" s="19">
+        <v>83.816879937096161</v>
+      </c>
+      <c r="AQ141" s="19">
+        <v>89.256005583447774</v>
+      </c>
+      <c r="AR141" s="20">
+        <v>22.312665758605938</v>
+      </c>
+      <c r="AS141" s="20">
+        <v>45.641127406173311</v>
+      </c>
+      <c r="AT141" s="20">
+        <v>25.396010919242627</v>
+      </c>
     </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>399</v>
       </c>
@@ -20201,8 +22347,23 @@
       <c r="AO142">
         <v>3.043448325391632</v>
       </c>
+      <c r="AP142" s="19">
+        <v>88.939045469797165</v>
+      </c>
+      <c r="AQ142" s="19">
+        <v>91.597354755669969</v>
+      </c>
+      <c r="AR142" s="20">
+        <v>26.502688185167099</v>
+      </c>
+      <c r="AS142" s="20">
+        <v>58.590226643291459</v>
+      </c>
+      <c r="AT142" s="20">
+        <v>20.645305889663128</v>
+      </c>
     </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>400</v>
       </c>
@@ -20326,8 +22487,23 @@
       <c r="AO143">
         <v>84.23901219574249</v>
       </c>
+      <c r="AP143" s="19">
+        <v>68.482570028166109</v>
+      </c>
+      <c r="AQ143" s="19">
+        <v>68.650909223218548</v>
+      </c>
+      <c r="AR143" s="20">
+        <v>9.9952339319356085</v>
+      </c>
+      <c r="AS143" s="20">
+        <v>47.52973465963764</v>
+      </c>
+      <c r="AT143" s="20">
+        <v>11.695097491853781</v>
+      </c>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>401</v>
       </c>
@@ -20451,8 +22627,23 @@
       <c r="AO144">
         <v>84.23901219574249</v>
       </c>
+      <c r="AP144" s="19">
+        <v>66.005862286492146</v>
+      </c>
+      <c r="AQ144" s="19">
+        <v>57.145414796245554</v>
+      </c>
+      <c r="AR144" s="20">
+        <v>10.142294257564274</v>
+      </c>
+      <c r="AS144" s="20">
+        <v>33.060321867894814</v>
+      </c>
+      <c r="AT144" s="20">
+        <v>14.682234775257976</v>
+      </c>
     </row>
-    <row r="145" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>402</v>
       </c>
@@ -20576,8 +22767,23 @@
       <c r="AO145">
         <v>11.947501123215336</v>
       </c>
+      <c r="AP145" s="19">
+        <v>89.005030407555495</v>
+      </c>
+      <c r="AQ145" s="19">
+        <v>94.60464212338276</v>
+      </c>
+      <c r="AR145" s="20">
+        <v>11.904758935347141</v>
+      </c>
+      <c r="AS145" s="20">
+        <v>62.11594817406111</v>
+      </c>
+      <c r="AT145" s="20">
+        <v>15.969513391452418</v>
+      </c>
     </row>
-    <row r="146" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>403</v>
       </c>
@@ -20701,8 +22907,23 @@
       <c r="AO146">
         <v>11.947501123215336</v>
       </c>
+      <c r="AP146" s="19">
+        <v>89.74240439723124</v>
+      </c>
+      <c r="AQ146" s="19">
+        <v>98.629837018680902</v>
+      </c>
+      <c r="AR146" s="20">
+        <v>14.961945946911936</v>
+      </c>
+      <c r="AS146" s="20">
+        <v>74.378568540316451</v>
+      </c>
+      <c r="AT146" s="20">
+        <v>12.565484452439955</v>
+      </c>
     </row>
-    <row r="147" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>404</v>
       </c>
@@ -20826,8 +23047,23 @@
       <c r="AO147">
         <v>11.947501123215336</v>
       </c>
+      <c r="AP147" s="19">
+        <v>100.53781676442517</v>
+      </c>
+      <c r="AQ147" s="19">
+        <v>90</v>
+      </c>
+      <c r="AR147" s="20">
+        <v>17.966501545409411</v>
+      </c>
+      <c r="AS147" s="20">
+        <v>75.158791505853316</v>
+      </c>
+      <c r="AT147" s="20">
+        <v>9.9486252422209045</v>
+      </c>
     </row>
-    <row r="148" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>405</v>
       </c>
@@ -20951,8 +23187,23 @@
       <c r="AO148">
         <v>23.289794577643089</v>
       </c>
+      <c r="AP148" s="19">
+        <v>90.876205540876597</v>
+      </c>
+      <c r="AQ148" s="19">
+        <v>94.466426626138571</v>
+      </c>
+      <c r="AR148" s="20">
+        <v>15.323655626842383</v>
+      </c>
+      <c r="AS148" s="20">
+        <v>55.034957924907431</v>
+      </c>
+      <c r="AT148" s="20">
+        <v>6.4844909882801742</v>
+      </c>
     </row>
-    <row r="149" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>406</v>
       </c>
@@ -21076,8 +23327,23 @@
       <c r="AO149">
         <v>23.289794577643089</v>
       </c>
+      <c r="AP149" s="19">
+        <v>55.374319579755664</v>
+      </c>
+      <c r="AQ149" s="19">
+        <v>76.467823806618284</v>
+      </c>
+      <c r="AR149" s="20">
+        <v>7.0936224928273779</v>
+      </c>
+      <c r="AS149" s="20">
+        <v>20.614531280426853</v>
+      </c>
+      <c r="AT149" s="20">
+        <v>14.335605447299072</v>
+      </c>
     </row>
-    <row r="150" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>407</v>
       </c>
@@ -21201,8 +23467,23 @@
       <c r="AO150">
         <v>23.289794577643089</v>
       </c>
+      <c r="AP150" s="19">
+        <v>73.077778671731537</v>
+      </c>
+      <c r="AQ150" s="19">
+        <v>74.730134791215008</v>
+      </c>
+      <c r="AR150" s="20">
+        <v>11.125330568385332</v>
+      </c>
+      <c r="AS150" s="20">
+        <v>42.388867829201608</v>
+      </c>
+      <c r="AT150" s="20">
+        <v>33.441278442831553</v>
+      </c>
     </row>
-    <row r="151" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>408</v>
       </c>
@@ -21326,8 +23607,23 @@
       <c r="AO151">
         <v>104.49484335211551</v>
       </c>
+      <c r="AP151" s="19">
+        <v>96.203191538798734</v>
+      </c>
+      <c r="AQ151" s="19">
+        <v>92.041210916514459</v>
+      </c>
+      <c r="AR151" s="20">
+        <v>23.886051439776509</v>
+      </c>
+      <c r="AS151" s="20">
+        <v>31.5023511819061</v>
+      </c>
+      <c r="AT151" s="20">
+        <v>7.5022143440421178</v>
+      </c>
     </row>
-    <row r="152" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>409</v>
       </c>
@@ -21451,8 +23747,23 @@
       <c r="AO152">
         <v>104.49484335211551</v>
       </c>
+      <c r="AP152" s="19">
+        <v>111.23873774667673</v>
+      </c>
+      <c r="AQ152" s="19">
+        <v>127.24486547934823</v>
+      </c>
+      <c r="AR152" s="20">
+        <v>28.740847745358085</v>
+      </c>
+      <c r="AS152" s="20">
+        <v>62.087761773399016</v>
+      </c>
+      <c r="AT152" s="20">
+        <v>32.248130094732851</v>
+      </c>
     </row>
-    <row r="153" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>410</v>
       </c>
@@ -21576,8 +23887,23 @@
       <c r="AO153">
         <v>62.803873561248764</v>
       </c>
+      <c r="AP153" s="19">
+        <v>100.13731796272232</v>
+      </c>
+      <c r="AQ153" s="19">
+        <v>78.841739950970862</v>
+      </c>
+      <c r="AR153" s="20">
+        <v>11.814016595976497</v>
+      </c>
+      <c r="AS153" s="20">
+        <v>58.285646245962873</v>
+      </c>
+      <c r="AT153" s="20">
+        <v>10.184298503832833</v>
+      </c>
     </row>
-    <row r="154" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>411</v>
       </c>
@@ -21701,8 +24027,23 @@
       <c r="AO154">
         <v>95.201802966343749</v>
       </c>
+      <c r="AP154" s="19">
+        <v>119.69015678058547</v>
+      </c>
+      <c r="AQ154" s="19">
+        <v>97.512489418423939</v>
+      </c>
+      <c r="AR154" s="20">
+        <v>31.27487740533439</v>
+      </c>
+      <c r="AS154" s="20">
+        <v>68.241256876445078</v>
+      </c>
+      <c r="AT154" s="20">
+        <v>13.599311660580945</v>
+      </c>
     </row>
-    <row r="155" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>412</v>
       </c>
@@ -21826,8 +24167,23 @@
       <c r="AO155">
         <v>8.0610348204796924</v>
       </c>
+      <c r="AP155" s="19">
+        <v>121.26168577560877</v>
+      </c>
+      <c r="AQ155" s="19">
+        <v>125.43086366816367</v>
+      </c>
+      <c r="AR155" s="20">
+        <v>22.857319051702738</v>
+      </c>
+      <c r="AS155" s="20">
+        <v>13.690349269932975</v>
+      </c>
+      <c r="AT155" s="20">
+        <v>10.464906546907088</v>
+      </c>
     </row>
-    <row r="156" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>413</v>
       </c>
@@ -21951,8 +24307,23 @@
       <c r="AO156">
         <v>8.0610348204796924</v>
       </c>
+      <c r="AP156" s="19">
+        <v>122.67051881860601</v>
+      </c>
+      <c r="AQ156" s="19">
+        <v>123.93276021429148</v>
+      </c>
+      <c r="AR156" s="20">
+        <v>20.191143166093848</v>
+      </c>
+      <c r="AS156" s="20">
+        <v>33.798143812198823</v>
+      </c>
+      <c r="AT156" s="20">
+        <v>13.280416208261171</v>
+      </c>
     </row>
-    <row r="157" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>414</v>
       </c>
@@ -22076,8 +24447,23 @@
       <c r="AO157">
         <v>8.0610348204796924</v>
       </c>
+      <c r="AP157" s="19">
+        <v>123.20750981987389</v>
+      </c>
+      <c r="AQ157" s="19">
+        <v>131.97795172863667</v>
+      </c>
+      <c r="AR157" s="20">
+        <v>43.191957425527285</v>
+      </c>
+      <c r="AS157" s="20">
+        <v>60.447818221352463</v>
+      </c>
+      <c r="AT157" s="20">
+        <v>39.987428440965424</v>
+      </c>
     </row>
-    <row r="158" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>415</v>
       </c>
@@ -22201,8 +24587,23 @@
       <c r="AO158">
         <v>2.5744893530329991</v>
       </c>
+      <c r="AP158" s="19">
+        <v>158.25165828571426</v>
+      </c>
+      <c r="AQ158" s="19">
+        <v>155.89271840406579</v>
+      </c>
+      <c r="AR158" s="20">
+        <v>12.857337734030434</v>
+      </c>
+      <c r="AS158" s="20">
+        <v>13.552614276951839</v>
+      </c>
+      <c r="AT158" s="20">
+        <v>8.1439317989309821</v>
+      </c>
     </row>
-    <row r="159" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>416</v>
       </c>
@@ -22326,8 +24727,23 @@
       <c r="AO159">
         <v>2.5744893530329991</v>
       </c>
+      <c r="AP159" s="19">
+        <v>155.75500391289233</v>
+      </c>
+      <c r="AQ159" s="19">
+        <v>143.54512172516064</v>
+      </c>
+      <c r="AR159" s="20">
+        <v>16.589704013222935</v>
+      </c>
+      <c r="AS159" s="20">
+        <v>34.462418685121122</v>
+      </c>
+      <c r="AT159" s="20">
+        <v>14.686884314755314</v>
+      </c>
     </row>
-    <row r="160" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>417</v>
       </c>
@@ -22451,8 +24867,23 @@
       <c r="AO160">
         <v>2.5744893530329991</v>
       </c>
+      <c r="AP160" s="19">
+        <v>161.74471550855753</v>
+      </c>
+      <c r="AQ160" s="19">
+        <v>154.16265975511664</v>
+      </c>
+      <c r="AR160" s="20">
+        <v>9.330852712485477</v>
+      </c>
+      <c r="AS160" s="20">
+        <v>62.222408704978108</v>
+      </c>
+      <c r="AT160" s="20">
+        <v>48.564695281079636</v>
+      </c>
     </row>
-    <row r="161" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>418</v>
       </c>
@@ -22576,8 +25007,23 @@
       <c r="AO161">
         <v>2.5744893530329991</v>
       </c>
+      <c r="AP161" s="19">
+        <v>142.5401777810149</v>
+      </c>
+      <c r="AQ161" s="19">
+        <v>130.25561666580191</v>
+      </c>
+      <c r="AR161" s="20">
+        <v>8.6942655787889791</v>
+      </c>
+      <c r="AS161" s="20">
+        <v>65.04319493592071</v>
+      </c>
+      <c r="AT161" s="20">
+        <v>54.306161884501641</v>
+      </c>
     </row>
-    <row r="162" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>419</v>
       </c>
@@ -22701,8 +25147,23 @@
       <c r="AO162">
         <v>2.5744893530329991</v>
       </c>
+      <c r="AP162" s="19">
+        <v>130.56731941490585</v>
+      </c>
+      <c r="AQ162" s="19">
+        <v>104.76437825083984</v>
+      </c>
+      <c r="AR162" s="20">
+        <v>10.991358919032708</v>
+      </c>
+      <c r="AS162" s="20">
+        <v>50.35518803778649</v>
+      </c>
+      <c r="AT162" s="20">
+        <v>10.932927970598813</v>
+      </c>
     </row>
-    <row r="163" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>420</v>
       </c>
@@ -22826,8 +25287,23 @@
       <c r="AO163">
         <v>6.2431720541812163</v>
       </c>
+      <c r="AP163" s="19">
+        <v>118.71025765493857</v>
+      </c>
+      <c r="AQ163" s="19">
+        <v>110.643746857266</v>
+      </c>
+      <c r="AR163" s="20">
+        <v>12.298325522591769</v>
+      </c>
+      <c r="AS163" s="20">
+        <v>59.371565318583443</v>
+      </c>
+      <c r="AT163" s="20">
+        <v>30.637242109043893</v>
+      </c>
     </row>
-    <row r="164" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>421</v>
       </c>
@@ -22951,8 +25427,23 @@
       <c r="AO164">
         <v>6.2431720541812172</v>
       </c>
+      <c r="AP164" s="19">
+        <v>139.6304137558385</v>
+      </c>
+      <c r="AQ164" s="19">
+        <v>132.9941433248454</v>
+      </c>
+      <c r="AR164" s="20">
+        <v>14.131176318661332</v>
+      </c>
+      <c r="AS164" s="20">
+        <v>60.222558239359756</v>
+      </c>
+      <c r="AT164" s="20">
+        <v>4.484507057111677</v>
+      </c>
     </row>
-    <row r="165" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>422</v>
       </c>
@@ -23076,8 +25567,23 @@
       <c r="AO165">
         <v>6.2431720541812163</v>
       </c>
+      <c r="AP165" s="19">
+        <v>126.1448600079638</v>
+      </c>
+      <c r="AQ165" s="19">
+        <v>116.39894825683308</v>
+      </c>
+      <c r="AR165" s="20">
+        <v>19.727469713692138</v>
+      </c>
+      <c r="AS165" s="20">
+        <v>75.400025384665327</v>
+      </c>
+      <c r="AT165" s="20">
+        <v>16.843382306477096</v>
+      </c>
     </row>
-    <row r="166" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>423</v>
       </c>
@@ -23201,8 +25707,23 @@
       <c r="AO166">
         <v>101.57138599409446</v>
       </c>
+      <c r="AP166" s="19">
+        <v>105.8140864242947</v>
+      </c>
+      <c r="AQ166" s="19">
+        <v>99</v>
+      </c>
+      <c r="AR166" s="20">
+        <v>6.4372978409659991</v>
+      </c>
+      <c r="AS166" s="20">
+        <v>56.331050664960209</v>
+      </c>
+      <c r="AT166" s="20">
+        <v>14.96501101775082</v>
+      </c>
     </row>
-    <row r="167" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>424</v>
       </c>
@@ -23326,8 +25847,23 @@
       <c r="AO167">
         <v>101.57138599409446</v>
       </c>
+      <c r="AP167" s="19">
+        <v>89.470207723129789</v>
+      </c>
+      <c r="AQ167" s="19">
+        <v>72.902768596866451</v>
+      </c>
+      <c r="AR167" s="20">
+        <v>7.4300882996968927</v>
+      </c>
+      <c r="AS167" s="20">
+        <v>29.629311335578667</v>
+      </c>
+      <c r="AT167" s="20">
+        <v>9.805564059969921</v>
+      </c>
     </row>
-    <row r="168" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>425</v>
       </c>
@@ -23451,8 +25987,23 @@
       <c r="AO168">
         <v>6.0136564940596253</v>
       </c>
+      <c r="AP168" s="19">
+        <v>97.681362374317061</v>
+      </c>
+      <c r="AQ168" s="19">
+        <v>69.892331675520893</v>
+      </c>
+      <c r="AR168" s="20">
+        <v>9.5870645840397852</v>
+      </c>
+      <c r="AS168" s="20">
+        <v>47.12842896367885</v>
+      </c>
+      <c r="AT168" s="20">
+        <v>12.572564023586146</v>
+      </c>
     </row>
-    <row r="169" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>426</v>
       </c>
@@ -23576,8 +26127,23 @@
       <c r="AO169">
         <v>49.837286805011125</v>
       </c>
+      <c r="AP169" s="19">
+        <v>110.33200749199335</v>
+      </c>
+      <c r="AQ169" s="19">
+        <v>96.829745072836332</v>
+      </c>
+      <c r="AR169" s="20">
+        <v>10.909072166880897</v>
+      </c>
+      <c r="AS169" s="20">
+        <v>55.327625482005146</v>
+      </c>
+      <c r="AT169" s="20">
+        <v>28.202806394601549</v>
+      </c>
     </row>
-    <row r="170" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>427</v>
       </c>
@@ -23701,8 +26267,23 @@
       <c r="AO170">
         <v>3.4362145171052298</v>
       </c>
+      <c r="AP170" s="19">
+        <v>117.85012224813792</v>
+      </c>
+      <c r="AQ170" s="19">
+        <v>109.50317248989481</v>
+      </c>
+      <c r="AR170" s="20">
+        <v>9.7892900939152963</v>
+      </c>
+      <c r="AS170" s="20">
+        <v>36.104953953917942</v>
+      </c>
+      <c r="AT170" s="20">
+        <v>43.28658770825087</v>
+      </c>
     </row>
-    <row r="171" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>428</v>
       </c>
@@ -23826,8 +26407,23 @@
       <c r="AO171">
         <v>3.436214517105229</v>
       </c>
+      <c r="AP171" s="19">
+        <v>130.19887279155631</v>
+      </c>
+      <c r="AQ171" s="19">
+        <v>128.77890658971418</v>
+      </c>
+      <c r="AR171" s="20">
+        <v>6.8251079772305037</v>
+      </c>
+      <c r="AS171" s="20">
+        <v>51.493916373483025</v>
+      </c>
+      <c r="AT171" s="20">
+        <v>25.341669723682642</v>
+      </c>
     </row>
-    <row r="172" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>429</v>
       </c>
@@ -23951,8 +26547,23 @@
       <c r="AO172">
         <v>3.436214517105229</v>
       </c>
+      <c r="AP172" s="19">
+        <v>156.52090592333971</v>
+      </c>
+      <c r="AQ172" s="19">
+        <v>166.62987868843641</v>
+      </c>
+      <c r="AR172" s="20">
+        <v>22.220710708233586</v>
+      </c>
+      <c r="AS172" s="20">
+        <v>83.430373887080691</v>
+      </c>
+      <c r="AT172" s="20">
+        <v>47.932070581273358</v>
+      </c>
     </row>
-    <row r="173" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>430</v>
       </c>
@@ -24076,8 +26687,23 @@
       <c r="AO173">
         <v>8.3912588247936579</v>
       </c>
+      <c r="AP173" s="19">
+        <v>148.3267831974911</v>
+      </c>
+      <c r="AQ173" s="19">
+        <v>144.69602606276641</v>
+      </c>
+      <c r="AR173" s="20">
+        <v>11.701282618123354</v>
+      </c>
+      <c r="AS173" s="20">
+        <v>72.039944986831117</v>
+      </c>
+      <c r="AT173" s="20">
+        <v>13.739092245692346</v>
+      </c>
     </row>
-    <row r="174" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>431</v>
       </c>
@@ -24201,8 +26827,23 @@
       <c r="AO174">
         <v>8.3912588247936579</v>
       </c>
+      <c r="AP174" s="19">
+        <v>158.34723413179211</v>
+      </c>
+      <c r="AQ174" s="19">
+        <v>193</v>
+      </c>
+      <c r="AR174" s="20">
+        <v>38.830205239621996</v>
+      </c>
+      <c r="AS174" s="20">
+        <v>102.77433293958825</v>
+      </c>
+      <c r="AT174" s="20">
+        <v>38.803061635167055</v>
+      </c>
     </row>
-    <row r="175" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>432</v>
       </c>
@@ -24326,8 +26967,23 @@
       <c r="AO175">
         <v>8.3912588247936579</v>
       </c>
+      <c r="AP175" s="19">
+        <v>142.73729542905483</v>
+      </c>
+      <c r="AQ175" s="19">
+        <v>179.34286366055812</v>
+      </c>
+      <c r="AR175" s="20">
+        <v>34.802896737890656</v>
+      </c>
+      <c r="AS175" s="20">
+        <v>103.08772918409247</v>
+      </c>
+      <c r="AT175" s="20">
+        <v>43.350643677286904</v>
+      </c>
     </row>
-    <row r="176" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>433</v>
       </c>
@@ -24451,8 +27107,23 @@
       <c r="AO176">
         <v>8.3912588247936579</v>
       </c>
+      <c r="AP176" s="19">
+        <v>134.610694961327</v>
+      </c>
+      <c r="AQ176" s="19">
+        <v>138</v>
+      </c>
+      <c r="AR176" s="20">
+        <v>5.085595634764208</v>
+      </c>
+      <c r="AS176" s="20">
+        <v>71.745124504657767</v>
+      </c>
+      <c r="AT176" s="20">
+        <v>10.852711985725845</v>
+      </c>
     </row>
-    <row r="177" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>434</v>
       </c>
@@ -24576,8 +27247,23 @@
       <c r="AO177">
         <v>8.3912588247936579</v>
       </c>
+      <c r="AP177" s="19">
+        <v>129.3033546799941</v>
+      </c>
+      <c r="AQ177" s="19">
+        <v>130.72517355310541</v>
+      </c>
+      <c r="AR177" s="20">
+        <v>11.450371515016521</v>
+      </c>
+      <c r="AS177" s="20">
+        <v>77.090688680996379</v>
+      </c>
+      <c r="AT177" s="20">
+        <v>28.656078813527863</v>
+      </c>
     </row>
-    <row r="178" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>435</v>
       </c>
@@ -24701,8 +27387,23 @@
       <c r="AO178">
         <v>49.837286805011125</v>
       </c>
+      <c r="AP178" s="19">
+        <v>133.08732354525443</v>
+      </c>
+      <c r="AQ178" s="19">
+        <v>142.60866868108778</v>
+      </c>
+      <c r="AR178" s="20">
+        <v>38.179771276489305</v>
+      </c>
+      <c r="AS178" s="20">
+        <v>113.02660840854061</v>
+      </c>
+      <c r="AT178" s="20">
+        <v>57.920743621555651</v>
+      </c>
     </row>
-    <row r="179" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>436</v>
       </c>
@@ -24826,8 +27527,23 @@
       <c r="AO179">
         <v>49.837286805011125</v>
       </c>
+      <c r="AP179" s="19">
+        <v>106.76957177091417</v>
+      </c>
+      <c r="AQ179" s="19">
+        <v>105.74442597722376</v>
+      </c>
+      <c r="AR179" s="20">
+        <v>3.7225743182517692</v>
+      </c>
+      <c r="AS179" s="20">
+        <v>70.435169535241613</v>
+      </c>
+      <c r="AT179" s="20">
+        <v>6.8780576669744544</v>
+      </c>
     </row>
-    <row r="180" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>437</v>
       </c>
@@ -24951,8 +27667,23 @@
       <c r="AO180">
         <v>4.9882875203632384</v>
       </c>
+      <c r="AP180" s="19">
+        <v>107.6375235423459</v>
+      </c>
+      <c r="AQ180" s="19">
+        <v>117.23427352187015</v>
+      </c>
+      <c r="AR180" s="20">
+        <v>8.2323001179134909</v>
+      </c>
+      <c r="AS180" s="20">
+        <v>73.150839618933531</v>
+      </c>
+      <c r="AT180" s="20">
+        <v>34.327564917928463</v>
+      </c>
     </row>
-    <row r="181" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>438</v>
       </c>
@@ -25076,8 +27807,23 @@
       <c r="AO181">
         <v>4.9882875203632384</v>
       </c>
+      <c r="AP181" s="19">
+        <v>110.25981267465056</v>
+      </c>
+      <c r="AQ181" s="19">
+        <v>103.65385043194543</v>
+      </c>
+      <c r="AR181" s="20">
+        <v>10.885701364428458</v>
+      </c>
+      <c r="AS181" s="20">
+        <v>52.961925772125632</v>
+      </c>
+      <c r="AT181" s="20">
+        <v>49.520374643135227</v>
+      </c>
     </row>
-    <row r="182" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>439</v>
       </c>
@@ -25201,8 +27947,23 @@
       <c r="AO182">
         <v>49.837286805011125</v>
       </c>
+      <c r="AP182" s="19">
+        <v>97.998682177741614</v>
+      </c>
+      <c r="AQ182" s="19">
+        <v>81.224404137310742</v>
+      </c>
+      <c r="AR182" s="20">
+        <v>9.9698491980212847</v>
+      </c>
+      <c r="AS182" s="20">
+        <v>44.823526907510114</v>
+      </c>
+      <c r="AT182" s="20">
+        <v>36.663048225796089</v>
+      </c>
     </row>
-    <row r="183" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>440</v>
       </c>
@@ -25326,8 +28087,23 @@
       <c r="AO183">
         <v>4.9882875203632366</v>
       </c>
+      <c r="AP183" s="19">
+        <v>114.82340201317878</v>
+      </c>
+      <c r="AQ183" s="19">
+        <v>127.05643257338173</v>
+      </c>
+      <c r="AR183" s="20">
+        <v>7.8366532823566724</v>
+      </c>
+      <c r="AS183" s="20">
+        <v>77.665444448359722</v>
+      </c>
+      <c r="AT183" s="20">
+        <v>56.360151679058461</v>
+      </c>
     </row>
-    <row r="184" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>441</v>
       </c>
@@ -25451,8 +28227,23 @@
       <c r="AO184">
         <v>21.277441209319484</v>
       </c>
+      <c r="AP184" s="19">
+        <v>126.6075751701333</v>
+      </c>
+      <c r="AQ184" s="19">
+        <v>136.5136160542331</v>
+      </c>
+      <c r="AR184" s="20">
+        <v>9.4123378591788018</v>
+      </c>
+      <c r="AS184" s="20">
+        <v>100.44045424081351</v>
+      </c>
+      <c r="AT184" s="20">
+        <v>77.413283048301381</v>
+      </c>
     </row>
-    <row r="185" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>442</v>
       </c>
@@ -25576,8 +28367,23 @@
       <c r="AO185">
         <v>38.70271668539911</v>
       </c>
+      <c r="AP185" s="19">
+        <v>105.17055538118686</v>
+      </c>
+      <c r="AQ185" s="19">
+        <v>138.61569583312607</v>
+      </c>
+      <c r="AR185" s="20">
+        <v>6.9924361040640708</v>
+      </c>
+      <c r="AS185" s="20">
+        <v>89.621853918983916</v>
+      </c>
+      <c r="AT185" s="20">
+        <v>63.689915186788042</v>
+      </c>
     </row>
-    <row r="186" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>443</v>
       </c>
@@ -25701,8 +28507,23 @@
       <c r="AO186">
         <v>38.702716685399103</v>
       </c>
+      <c r="AP186" s="19">
+        <v>109.85990626453022</v>
+      </c>
+      <c r="AQ186" s="19">
+        <v>108.16087859470997</v>
+      </c>
+      <c r="AR186" s="20">
+        <v>5.4755272577807252</v>
+      </c>
+      <c r="AS186" s="20">
+        <v>58.617958983529959</v>
+      </c>
+      <c r="AT186" s="20">
+        <v>48.030454469410707</v>
+      </c>
     </row>
-    <row r="187" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>444</v>
       </c>
@@ -25826,8 +28647,23 @@
       <c r="AO187">
         <v>15.190642737492274</v>
       </c>
+      <c r="AP187" s="19">
+        <v>109.5113592798462</v>
+      </c>
+      <c r="AQ187" s="19">
+        <v>75.240305384589519</v>
+      </c>
+      <c r="AR187" s="20">
+        <v>6.2997992690501006</v>
+      </c>
+      <c r="AS187" s="20">
+        <v>46.064568380811444</v>
+      </c>
+      <c r="AT187" s="20">
+        <v>6.4382612921669518</v>
+      </c>
     </row>
-    <row r="188" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>445</v>
       </c>
@@ -25951,8 +28787,23 @@
       <c r="AO188">
         <v>38.70271668539911</v>
       </c>
+      <c r="AP188" s="19">
+        <v>116.22361784281934</v>
+      </c>
+      <c r="AQ188" s="19">
+        <v>113</v>
+      </c>
+      <c r="AR188" s="20">
+        <v>9.0424116402116397</v>
+      </c>
+      <c r="AS188" s="20">
+        <v>73.435575736961439</v>
+      </c>
+      <c r="AT188" s="20">
+        <v>36.413047052154191</v>
+      </c>
     </row>
-    <row r="189" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>446</v>
       </c>
@@ -26076,8 +28927,23 @@
       <c r="AO189">
         <v>15.190642737492274</v>
       </c>
+      <c r="AP189" s="19">
+        <v>132.33615180911454</v>
+      </c>
+      <c r="AQ189" s="19">
+        <v>108</v>
+      </c>
+      <c r="AR189" s="20">
+        <v>28.47498225064961</v>
+      </c>
+      <c r="AS189" s="20">
+        <v>89.199898820707602</v>
+      </c>
+      <c r="AT189" s="20">
+        <v>31.607465120927433</v>
+      </c>
     </row>
-    <row r="190" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>447</v>
       </c>
@@ -26201,8 +29067,23 @@
       <c r="AO190">
         <v>15.190642737492272</v>
       </c>
+      <c r="AP190" s="19">
+        <v>136.00755187187889</v>
+      </c>
+      <c r="AQ190" s="19">
+        <v>114.69085010571848</v>
+      </c>
+      <c r="AR190" s="20">
+        <v>6.8244599964491499</v>
+      </c>
+      <c r="AS190" s="20">
+        <v>71.257007973271797</v>
+      </c>
+      <c r="AT190" s="20">
+        <v>20.496844262956571</v>
+      </c>
     </row>
-    <row r="191" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>448</v>
       </c>
@@ -26326,8 +29207,23 @@
       <c r="AO191">
         <v>15.190642737492272</v>
       </c>
+      <c r="AP191" s="19">
+        <v>127.869106237856</v>
+      </c>
+      <c r="AQ191" s="19">
+        <v>93</v>
+      </c>
+      <c r="AR191" s="20">
+        <v>8.8841591007662295</v>
+      </c>
+      <c r="AS191" s="20">
+        <v>68.05593508746567</v>
+      </c>
+      <c r="AT191" s="20">
+        <v>9.343374873500073</v>
+      </c>
     </row>
-    <row r="192" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>449</v>
       </c>
@@ -26451,8 +29347,23 @@
       <c r="AO192">
         <v>54.551564560160912</v>
       </c>
+      <c r="AP192" s="19">
+        <v>93.483085751588646</v>
+      </c>
+      <c r="AQ192" s="19">
+        <v>51.942080745341613</v>
+      </c>
+      <c r="AR192" s="20">
+        <v>4.3136082477305306</v>
+      </c>
+      <c r="AS192" s="20">
+        <v>23.27392143454372</v>
+      </c>
+      <c r="AT192" s="20">
+        <v>8.0876390050167224</v>
+      </c>
     </row>
-    <row r="193" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>450</v>
       </c>
@@ -26576,8 +29487,23 @@
       <c r="AO193">
         <v>73.499491062644779</v>
       </c>
+      <c r="AP193" s="19">
+        <v>84.524655302025295</v>
+      </c>
+      <c r="AQ193" s="19">
+        <v>61.351045549643693</v>
+      </c>
+      <c r="AR193" s="20">
+        <v>7.2524148320429882</v>
+      </c>
+      <c r="AS193" s="20">
+        <v>19.866410821890163</v>
+      </c>
+      <c r="AT193" s="20">
+        <v>8.6272967045804538</v>
+      </c>
     </row>
-    <row r="194" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>451</v>
       </c>
@@ -26701,8 +29627,23 @@
       <c r="AO194">
         <v>4.0363104491718156</v>
       </c>
+      <c r="AP194" s="19">
+        <v>102.57360369572434</v>
+      </c>
+      <c r="AQ194" s="19">
+        <v>84</v>
+      </c>
+      <c r="AR194" s="20">
+        <v>33.26900206734534</v>
+      </c>
+      <c r="AS194" s="20">
+        <v>69.212533093187162</v>
+      </c>
+      <c r="AT194" s="20">
+        <v>40.498380015661702</v>
+      </c>
     </row>
-    <row r="195" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>452</v>
       </c>
@@ -26826,8 +29767,23 @@
       <c r="AO195">
         <v>4.0363104491718156</v>
       </c>
+      <c r="AP195" s="19">
+        <v>89.421296160511773</v>
+      </c>
+      <c r="AQ195" s="19">
+        <v>88.156700402246955</v>
+      </c>
+      <c r="AR195" s="20">
+        <v>8.5698615355748125</v>
+      </c>
+      <c r="AS195" s="20">
+        <v>63.889204676853787</v>
+      </c>
+      <c r="AT195" s="20">
+        <v>15.642370325198488</v>
+      </c>
     </row>
-    <row r="196" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>453</v>
       </c>
@@ -26951,8 +29907,23 @@
       <c r="AO196">
         <v>4.0363104491718156</v>
       </c>
+      <c r="AP196" s="19">
+        <v>98.727683781421788</v>
+      </c>
+      <c r="AQ196" s="19">
+        <v>85.263191153238552</v>
+      </c>
+      <c r="AR196" s="20">
+        <v>18.655707993680885</v>
+      </c>
+      <c r="AS196" s="20">
+        <v>58.598255671406022</v>
+      </c>
+      <c r="AT196" s="20">
+        <v>35.13846571879936</v>
+      </c>
     </row>
-    <row r="197" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>454</v>
       </c>
@@ -27076,8 +30047,23 @@
       <c r="AO197">
         <v>107.51892640481719</v>
       </c>
+      <c r="AP197" s="19">
+        <v>87.449437850708193</v>
+      </c>
+      <c r="AQ197" s="19">
+        <v>85</v>
+      </c>
+      <c r="AR197" s="20">
+        <v>6.6679165618042804</v>
+      </c>
+      <c r="AS197" s="20">
+        <v>61.943031168328339</v>
+      </c>
+      <c r="AT197" s="20">
+        <v>21.838506533733423</v>
+      </c>
     </row>
-    <row r="198" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>455</v>
       </c>
@@ -27201,8 +30187,23 @@
       <c r="AO198">
         <v>107.51892640481719</v>
       </c>
+      <c r="AP198" s="19">
+        <v>82.968125529964041</v>
+      </c>
+      <c r="AQ198" s="19">
+        <v>73.757712984937285</v>
+      </c>
+      <c r="AR198" s="20">
+        <v>7.0595540917970334</v>
+      </c>
+      <c r="AS198" s="20">
+        <v>71.79251057457904</v>
+      </c>
+      <c r="AT198" s="20">
+        <v>4.3712941993187053</v>
+      </c>
     </row>
-    <row r="199" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>456</v>
       </c>
@@ -27326,8 +30327,23 @@
       <c r="AO199">
         <v>2.3688088828247178</v>
       </c>
+      <c r="AP199" s="19">
+        <v>104.07338514612633</v>
+      </c>
+      <c r="AQ199" s="19">
+        <v>88.210207993369082</v>
+      </c>
+      <c r="AR199" s="20">
+        <v>5.0440200611288102</v>
+      </c>
+      <c r="AS199" s="20">
+        <v>76.722489406066273</v>
+      </c>
+      <c r="AT199" s="20">
+        <v>31.477529800295276</v>
+      </c>
     </row>
-    <row r="200" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>457</v>
       </c>
@@ -27451,8 +30467,23 @@
       <c r="AO200">
         <v>2.3688088828247178</v>
       </c>
+      <c r="AP200" s="19">
+        <v>115.03167910401474</v>
+      </c>
+      <c r="AQ200" s="19">
+        <v>76</v>
+      </c>
+      <c r="AR200" s="20">
+        <v>11.471214119239153</v>
+      </c>
+      <c r="AS200" s="20">
+        <v>67.476006616043918</v>
+      </c>
+      <c r="AT200" s="20">
+        <v>29.497921396887449</v>
+      </c>
     </row>
-    <row r="201" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>458</v>
       </c>
@@ -27576,8 +30607,23 @@
       <c r="AO201">
         <v>2.3688088828247178</v>
       </c>
+      <c r="AP201" s="19">
+        <v>124.41185516404882</v>
+      </c>
+      <c r="AQ201" s="19">
+        <v>117</v>
+      </c>
+      <c r="AR201" s="20">
+        <v>10.217991205296297</v>
+      </c>
+      <c r="AS201" s="20">
+        <v>74.867122249626803</v>
+      </c>
+      <c r="AT201" s="20">
+        <v>51.779907120140194</v>
+      </c>
     </row>
-    <row r="202" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>459</v>
       </c>
@@ -27701,8 +30747,23 @@
       <c r="AO202">
         <v>2.3688088828247178</v>
       </c>
+      <c r="AP202" s="19">
+        <v>110.94205946860848</v>
+      </c>
+      <c r="AQ202" s="19">
+        <v>113.80706122326544</v>
+      </c>
+      <c r="AR202" s="20">
+        <v>8.5069865014848371</v>
+      </c>
+      <c r="AS202" s="20">
+        <v>87.297248612652623</v>
+      </c>
+      <c r="AT202" s="20">
+        <v>38.783101628820823</v>
+      </c>
     </row>
-    <row r="203" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>460</v>
       </c>
@@ -27826,8 +30887,23 @@
       <c r="AO203">
         <v>107.51892640481719</v>
       </c>
+      <c r="AP203" s="19">
+        <v>93.656943906635178</v>
+      </c>
+      <c r="AQ203" s="19">
+        <v>96.551795732650092</v>
+      </c>
+      <c r="AR203" s="20">
+        <v>18.176116225648272</v>
+      </c>
+      <c r="AS203" s="20">
+        <v>67.324210164774485</v>
+      </c>
+      <c r="AT203" s="20">
+        <v>34.326923002164605</v>
+      </c>
     </row>
-    <row r="204" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>461</v>
       </c>
@@ -27951,8 +31027,23 @@
       <c r="AO204">
         <v>8.9994970100039104</v>
       </c>
+      <c r="AP204" s="19">
+        <v>79.148884702274245</v>
+      </c>
+      <c r="AQ204" s="19">
+        <v>68.879103595953623</v>
+      </c>
+      <c r="AR204" s="20">
+        <v>10.862581399985231</v>
+      </c>
+      <c r="AS204" s="20">
+        <v>39.831030052425611</v>
+      </c>
+      <c r="AT204" s="20">
+        <v>13.256458066898027</v>
+      </c>
     </row>
-    <row r="205" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>462</v>
       </c>
@@ -28076,8 +31167,23 @@
       <c r="AO205">
         <v>12.812573674026158</v>
       </c>
+      <c r="AP205" s="19">
+        <v>105.45825693189545</v>
+      </c>
+      <c r="AQ205" s="19">
+        <v>74.638413136377395</v>
+      </c>
+      <c r="AR205" s="20">
+        <v>35.54817901006092</v>
+      </c>
+      <c r="AS205" s="20">
+        <v>92.076629260742308</v>
+      </c>
+      <c r="AT205" s="20">
+        <v>21.041787341431412</v>
+      </c>
     </row>
-    <row r="206" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>463</v>
       </c>
@@ -28201,8 +31307,23 @@
       <c r="AO206">
         <v>12.812573674026158</v>
       </c>
+      <c r="AP206" s="19">
+        <v>103.90415780332575</v>
+      </c>
+      <c r="AQ206" s="19">
+        <v>79.112313979970679</v>
+      </c>
+      <c r="AR206" s="20">
+        <v>25.720301625432871</v>
+      </c>
+      <c r="AS206" s="20">
+        <v>84.237661279755429</v>
+      </c>
+      <c r="AT206" s="20">
+        <v>23.963117867282303</v>
+      </c>
     </row>
-    <row r="207" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>464</v>
       </c>
@@ -28326,8 +31447,23 @@
       <c r="AO207">
         <v>1.8291268920731649</v>
       </c>
+      <c r="AP207" s="19">
+        <v>97.819964957838508</v>
+      </c>
+      <c r="AQ207" s="19">
+        <v>84.725383883954763</v>
+      </c>
+      <c r="AR207" s="20">
+        <v>10.101202876853669</v>
+      </c>
+      <c r="AS207" s="20">
+        <v>70.853099476016084</v>
+      </c>
+      <c r="AT207" s="20">
+        <v>14.787722126686763</v>
+      </c>
     </row>
-    <row r="208" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>465</v>
       </c>
@@ -28451,8 +31587,23 @@
       <c r="AO208">
         <v>12.812573674026158</v>
       </c>
+      <c r="AP208" s="19">
+        <v>101.81086187662437</v>
+      </c>
+      <c r="AQ208" s="19">
+        <v>69.050796678222213</v>
+      </c>
+      <c r="AR208" s="20">
+        <v>12.94170169485977</v>
+      </c>
+      <c r="AS208" s="20">
+        <v>60.656458230158783</v>
+      </c>
+      <c r="AT208" s="20">
+        <v>10.239237800161261</v>
+      </c>
     </row>
-    <row r="209" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>466</v>
       </c>
@@ -28576,8 +31727,23 @@
       <c r="AO209">
         <v>1.8291268920731649</v>
       </c>
+      <c r="AP209" s="19">
+        <v>107.58373092419569</v>
+      </c>
+      <c r="AQ209" s="19">
+        <v>96.7723139366975</v>
+      </c>
+      <c r="AR209" s="20">
+        <v>5.1569015207691002</v>
+      </c>
+      <c r="AS209" s="20">
+        <v>69.60145009041355</v>
+      </c>
+      <c r="AT209" s="20">
+        <v>10.160888030285289</v>
+      </c>
     </row>
-    <row r="210" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>467</v>
       </c>
@@ -28701,8 +31867,23 @@
       <c r="AO210">
         <v>3.5161649524084582</v>
       </c>
+      <c r="AP210" s="19">
+        <v>124.28429283373593</v>
+      </c>
+      <c r="AQ210" s="19">
+        <v>120.43129174364076</v>
+      </c>
+      <c r="AR210" s="20">
+        <v>13.258091026794878</v>
+      </c>
+      <c r="AS210" s="20">
+        <v>83.565421265375093</v>
+      </c>
+      <c r="AT210" s="20">
+        <v>22.067685314133232</v>
+      </c>
     </row>
-    <row r="211" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>468</v>
       </c>
@@ -28826,8 +32007,23 @@
       <c r="AO211">
         <v>3.5161649524084582</v>
       </c>
+      <c r="AP211" s="19">
+        <v>125.46199105709624</v>
+      </c>
+      <c r="AQ211" s="19">
+        <v>121.04258200421306</v>
+      </c>
+      <c r="AR211" s="20">
+        <v>10.767809717817542</v>
+      </c>
+      <c r="AS211" s="20">
+        <v>80.533087177943969</v>
+      </c>
+      <c r="AT211" s="20">
+        <v>6.1871828861779203</v>
+      </c>
     </row>
-    <row r="212" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>469</v>
       </c>
@@ -28951,8 +32147,23 @@
       <c r="AO212">
         <v>3.5161649524084582</v>
       </c>
+      <c r="AP212" s="19">
+        <v>120.17993881112456</v>
+      </c>
+      <c r="AQ212" s="19">
+        <v>136.90317517412774</v>
+      </c>
+      <c r="AR212" s="20">
+        <v>10.827644812138258</v>
+      </c>
+      <c r="AS212" s="20">
+        <v>33.366504300055603</v>
+      </c>
+      <c r="AT212" s="20">
+        <v>11.432199404859228</v>
+      </c>
     </row>
-    <row r="213" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>470</v>
       </c>
@@ -29076,8 +32287,23 @@
       <c r="AO213">
         <v>71.972115047351863</v>
       </c>
+      <c r="AP213" s="19">
+        <v>78.206666999999996</v>
+      </c>
+      <c r="AQ213" s="19">
+        <v>50</v>
+      </c>
+      <c r="AR213" s="20">
+        <v>8.3320000000000007</v>
+      </c>
+      <c r="AS213" s="20">
+        <v>16.666</v>
+      </c>
+      <c r="AT213" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="214" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>471</v>
       </c>
@@ -29201,8 +32427,23 @@
       <c r="AO214">
         <v>60.726522381223276</v>
       </c>
+      <c r="AP214" s="19">
+        <v>100.26078794349343</v>
+      </c>
+      <c r="AQ214" s="19">
+        <v>80.02641794617837</v>
+      </c>
+      <c r="AR214" s="20">
+        <v>12.985773687199876</v>
+      </c>
+      <c r="AS214" s="20">
+        <v>42.544796035430444</v>
+      </c>
+      <c r="AT214" s="20">
+        <v>11.576645103902139</v>
+      </c>
     </row>
-    <row r="215" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>472</v>
       </c>
@@ -29326,8 +32567,23 @@
       <c r="AO215">
         <v>32.756548534941452</v>
       </c>
+      <c r="AP215" s="19">
+        <v>106.79838409027855</v>
+      </c>
+      <c r="AQ215" s="19">
+        <v>102.53449407308341</v>
+      </c>
+      <c r="AR215" s="20">
+        <v>12.436634458353758</v>
+      </c>
+      <c r="AS215" s="20">
+        <v>62.338773207180409</v>
+      </c>
+      <c r="AT215" s="20">
+        <v>17.917252676872973</v>
+      </c>
     </row>
-    <row r="216" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>473</v>
       </c>
@@ -29451,8 +32707,23 @@
       <c r="AO216">
         <v>17.355815774613788</v>
       </c>
+      <c r="AP216" s="19">
+        <v>107.89468999394404</v>
+      </c>
+      <c r="AQ216" s="19">
+        <v>110.176223129671</v>
+      </c>
+      <c r="AR216" s="20">
+        <v>14.316388057631558</v>
+      </c>
+      <c r="AS216" s="20">
+        <v>46.52951629555438</v>
+      </c>
+      <c r="AT216" s="20">
+        <v>26.447896455813233</v>
+      </c>
     </row>
-    <row r="217" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>474</v>
       </c>
@@ -29576,8 +32847,23 @@
       <c r="AO217">
         <v>7.9495645941587538</v>
       </c>
+      <c r="AP217" s="19">
+        <v>90.846862122584824</v>
+      </c>
+      <c r="AQ217" s="19">
+        <v>86.493158636702873</v>
+      </c>
+      <c r="AR217" s="20">
+        <v>9.0498051248030542</v>
+      </c>
+      <c r="AS217" s="20">
+        <v>51.363109254498717</v>
+      </c>
+      <c r="AT217" s="20">
+        <v>17.182975806451612</v>
+      </c>
     </row>
-    <row r="218" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>475</v>
       </c>
@@ -29701,8 +32987,23 @@
       <c r="AO218">
         <v>46.905366074696573</v>
       </c>
+      <c r="AP218" s="19">
+        <v>90.77488683639595</v>
+      </c>
+      <c r="AQ218" s="19">
+        <v>85.32256087700334</v>
+      </c>
+      <c r="AR218" s="20">
+        <v>10.383540798869701</v>
+      </c>
+      <c r="AS218" s="20">
+        <v>24.489048522865581</v>
+      </c>
+      <c r="AT218" s="20">
+        <v>27.391430747887075</v>
+      </c>
     </row>
-    <row r="219" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>476</v>
       </c>
@@ -29826,8 +33127,23 @@
       <c r="AO219">
         <v>32.756548534941452</v>
       </c>
+      <c r="AP219" s="19">
+        <v>99.892537711470069</v>
+      </c>
+      <c r="AQ219" s="19">
+        <v>82.335313592623535</v>
+      </c>
+      <c r="AR219" s="20">
+        <v>37.0088264178966</v>
+      </c>
+      <c r="AS219" s="20">
+        <v>65.186263065070051</v>
+      </c>
+      <c r="AT219" s="20">
+        <v>44.056982053900185</v>
+      </c>
     </row>
-    <row r="220" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>477</v>
       </c>
@@ -29951,8 +33267,23 @@
       <c r="AO220">
         <v>2.1420694308141588</v>
       </c>
+      <c r="AP220" s="19">
+        <v>95.403522723034158</v>
+      </c>
+      <c r="AQ220" s="19">
+        <v>93.820310829115272</v>
+      </c>
+      <c r="AR220" s="20">
+        <v>10.990299689883795</v>
+      </c>
+      <c r="AS220" s="20">
+        <v>29.250013474014402</v>
+      </c>
+      <c r="AT220" s="20">
+        <v>31.059588668282601</v>
+      </c>
     </row>
-    <row r="221" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>478</v>
       </c>
@@ -30076,8 +33407,23 @@
       <c r="AO221">
         <v>2.1420694308141588</v>
       </c>
+      <c r="AP221" s="19">
+        <v>114.8503332187536</v>
+      </c>
+      <c r="AQ221" s="19">
+        <v>112.82428604462943</v>
+      </c>
+      <c r="AR221" s="20">
+        <v>14.623376459706328</v>
+      </c>
+      <c r="AS221" s="20">
+        <v>61.533100387328027</v>
+      </c>
+      <c r="AT221" s="20">
+        <v>56.820827349982657</v>
+      </c>
     </row>
-    <row r="222" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>479</v>
       </c>
@@ -30201,8 +33547,23 @@
       <c r="AO222">
         <v>2.1420694308141588</v>
       </c>
+      <c r="AP222" s="19">
+        <v>132.94128921122382</v>
+      </c>
+      <c r="AQ222" s="19">
+        <v>79.976938340009738</v>
+      </c>
+      <c r="AR222" s="20">
+        <v>18.235764329302533</v>
+      </c>
+      <c r="AS222" s="20">
+        <v>101.26504754595486</v>
+      </c>
+      <c r="AT222" s="20">
+        <v>21.942558421624049</v>
+      </c>
     </row>
-    <row r="223" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>480</v>
       </c>
@@ -30326,8 +33687,23 @@
       <c r="AO223">
         <v>7.9495645941587538</v>
       </c>
+      <c r="AP223" s="19">
+        <v>111.16400733894031</v>
+      </c>
+      <c r="AQ223" s="19">
+        <v>120.0887238565093</v>
+      </c>
+      <c r="AR223" s="20">
+        <v>22.454345553310414</v>
+      </c>
+      <c r="AS223" s="20">
+        <v>74.104981053349775</v>
+      </c>
+      <c r="AT223" s="20">
+        <v>17.129558611278767</v>
+      </c>
     </row>
-    <row r="224" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>481</v>
       </c>
@@ -30451,8 +33827,23 @@
       <c r="AO224">
         <v>112.21789883268482</v>
       </c>
+      <c r="AP224" s="19">
+        <v>139.54647865434015</v>
+      </c>
+      <c r="AQ224" s="19">
+        <v>145.45027221688463</v>
+      </c>
+      <c r="AR224" s="20">
+        <v>8.872983836918225</v>
+      </c>
+      <c r="AS224" s="20">
+        <v>74.676019117272219</v>
+      </c>
+      <c r="AT224" s="20">
+        <v>9.1268449834316989</v>
+      </c>
     </row>
-    <row r="225" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>482</v>
       </c>
@@ -30576,8 +33967,23 @@
       <c r="AO225">
         <v>6.3125410954898706</v>
       </c>
+      <c r="AP225" s="19">
+        <v>123.2715660630105</v>
+      </c>
+      <c r="AQ225" s="19">
+        <v>93.809075919958033</v>
+      </c>
+      <c r="AR225" s="20">
+        <v>12.092352831697026</v>
+      </c>
+      <c r="AS225" s="20">
+        <v>57.848952940368271</v>
+      </c>
+      <c r="AT225" s="20">
+        <v>16.513287397886536</v>
+      </c>
     </row>
-    <row r="226" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>483</v>
       </c>
@@ -30701,8 +34107,23 @@
       <c r="AO226">
         <v>10.58168278826961</v>
       </c>
+      <c r="AP226" s="19">
+        <v>132.84050585444172</v>
+      </c>
+      <c r="AQ226" s="19">
+        <v>127.91193341703104</v>
+      </c>
+      <c r="AR226" s="20">
+        <v>19.364444250833369</v>
+      </c>
+      <c r="AS226" s="20">
+        <v>103.87541975843112</v>
+      </c>
+      <c r="AT226" s="20">
+        <v>22.588942681501354</v>
+      </c>
     </row>
-    <row r="227" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>484</v>
       </c>
@@ -30826,8 +34247,23 @@
       <c r="AO227">
         <v>74.180641302258024</v>
       </c>
+      <c r="AP227" s="19">
+        <v>164.58710666947778</v>
+      </c>
+      <c r="AQ227" s="19">
+        <v>164.51284943869689</v>
+      </c>
+      <c r="AR227" s="20">
+        <v>32.21628411842395</v>
+      </c>
+      <c r="AS227" s="20">
+        <v>125.68450145828744</v>
+      </c>
+      <c r="AT227" s="20">
+        <v>15.482819131080783</v>
+      </c>
     </row>
-    <row r="228" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>485</v>
       </c>
@@ -30951,8 +34387,23 @@
       <c r="AO228">
         <v>74.180641302258024</v>
       </c>
+      <c r="AP228" s="19">
+        <v>143.67433992686136</v>
+      </c>
+      <c r="AQ228" s="19">
+        <v>148.63786043652013</v>
+      </c>
+      <c r="AR228" s="20">
+        <v>25.10793109130034</v>
+      </c>
+      <c r="AS228" s="20">
+        <v>103.61088102059644</v>
+      </c>
+      <c r="AT228" s="20">
+        <v>13.321856206578547</v>
+      </c>
     </row>
-    <row r="229" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>486</v>
       </c>
@@ -31076,8 +34527,23 @@
       <c r="AO229">
         <v>38.264680339730567</v>
       </c>
+      <c r="AP229" s="19">
+        <v>91.026667000000003</v>
+      </c>
+      <c r="AQ229" s="19">
+        <v>103</v>
+      </c>
+      <c r="AR229" s="20">
+        <v>7.6369999999999996</v>
+      </c>
+      <c r="AS229" s="20">
+        <v>55.668000000000006</v>
+      </c>
+      <c r="AT229" s="20">
+        <v>60.125</v>
+      </c>
     </row>
-    <row r="230" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>487</v>
       </c>
@@ -31201,8 +34667,23 @@
       <c r="AO230">
         <v>38.264680339730567</v>
       </c>
+      <c r="AP230" s="19">
+        <v>103.52625699463609</v>
+      </c>
+      <c r="AQ230" s="19">
+        <v>155.92074106749007</v>
+      </c>
+      <c r="AR230" s="20">
+        <v>24.12628994265549</v>
+      </c>
+      <c r="AS230" s="20">
+        <v>78.246374353771515</v>
+      </c>
+      <c r="AT230" s="20">
+        <v>81.780329378032619</v>
+      </c>
     </row>
-    <row r="231" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>488</v>
       </c>
@@ -31326,8 +34807,23 @@
       <c r="AO231">
         <v>38.264680339730567</v>
       </c>
+      <c r="AP231" s="19">
+        <v>83.946690633373478</v>
+      </c>
+      <c r="AQ231" s="19">
+        <v>94.361230568658158</v>
+      </c>
+      <c r="AR231" s="20">
+        <v>13.680630983314169</v>
+      </c>
+      <c r="AS231" s="20">
+        <v>45.617450345395767</v>
+      </c>
+      <c r="AT231" s="20">
+        <v>46.155990602337646</v>
+      </c>
     </row>
-    <row r="232" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>489</v>
       </c>
@@ -31451,8 +34947,23 @@
       <c r="AO232">
         <v>38.264680339730567</v>
       </c>
+      <c r="AP232" s="19">
+        <v>107.53074569907946</v>
+      </c>
+      <c r="AQ232" s="19">
+        <v>129.19062745244591</v>
+      </c>
+      <c r="AR232" s="20">
+        <v>11.440961682673743</v>
+      </c>
+      <c r="AS232" s="20">
+        <v>93.648142045666887</v>
+      </c>
+      <c r="AT232" s="20">
+        <v>79.994753839829599</v>
+      </c>
     </row>
-    <row r="233" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>490</v>
       </c>
@@ -31576,8 +35087,23 @@
       <c r="AO233">
         <v>38.264680339730567</v>
       </c>
+      <c r="AP233" s="19">
+        <v>98.104160941934069</v>
+      </c>
+      <c r="AQ233" s="19">
+        <v>112.59076888293147</v>
+      </c>
+      <c r="AR233" s="20">
+        <v>9.1240281972190367</v>
+      </c>
+      <c r="AS233" s="20">
+        <v>70.653781439253251</v>
+      </c>
+      <c r="AT233" s="20">
+        <v>55.362366240855287</v>
+      </c>
     </row>
-    <row r="234" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>491</v>
       </c>
@@ -31701,8 +35227,23 @@
       <c r="AO234">
         <v>138.12034202783937</v>
       </c>
+      <c r="AP234" s="19">
+        <v>64.754802692336895</v>
+      </c>
+      <c r="AQ234" s="19">
+        <v>63.694802032928571</v>
+      </c>
+      <c r="AR234" s="20">
+        <v>12.088581715816066</v>
+      </c>
+      <c r="AS234" s="20">
+        <v>19.505865135883628</v>
+      </c>
+      <c r="AT234" s="20">
+        <v>7.658285215618247</v>
+      </c>
     </row>
-    <row r="235" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>492</v>
       </c>
@@ -31826,8 +35367,23 @@
       <c r="AO235">
         <v>4.4130690408197548</v>
       </c>
+      <c r="AP235" s="19">
+        <v>93.844907841083938</v>
+      </c>
+      <c r="AQ235" s="19">
+        <v>99.700776568977062</v>
+      </c>
+      <c r="AR235" s="20">
+        <v>12.521654028564711</v>
+      </c>
+      <c r="AS235" s="20">
+        <v>33.826559021052432</v>
+      </c>
+      <c r="AT235" s="20">
+        <v>38.168760159658234</v>
+      </c>
     </row>
-    <row r="236" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>493</v>
       </c>
@@ -31951,8 +35507,23 @@
       <c r="AO236">
         <v>4.4130690408197548</v>
       </c>
+      <c r="AP236" s="19">
+        <v>118.76609685080035</v>
+      </c>
+      <c r="AQ236" s="19">
+        <v>129.11643484583021</v>
+      </c>
+      <c r="AR236" s="20">
+        <v>24.344214097567367</v>
+      </c>
+      <c r="AS236" s="20">
+        <v>69.189493581721337</v>
+      </c>
+      <c r="AT236" s="20">
+        <v>63.544581459100613</v>
+      </c>
     </row>
-    <row r="237" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>494</v>
       </c>
@@ -32076,8 +35647,23 @@
       <c r="AO237">
         <v>138.12034202783937</v>
       </c>
+      <c r="AP237" s="19">
+        <v>79.96497493397122</v>
+      </c>
+      <c r="AQ237" s="19">
+        <v>69.008104987596738</v>
+      </c>
+      <c r="AR237" s="20">
+        <v>16.401893343393116</v>
+      </c>
+      <c r="AS237" s="20">
+        <v>29.510296935194386</v>
+      </c>
+      <c r="AT237" s="20">
+        <v>19.068015169701752</v>
+      </c>
     </row>
-    <row r="238" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>495</v>
       </c>
@@ -32201,8 +35787,23 @@
       <c r="AO238">
         <v>72.701544935657893</v>
       </c>
+      <c r="AP238" s="19">
+        <v>76.554200127417232</v>
+      </c>
+      <c r="AQ238" s="19">
+        <v>51.493510823587954</v>
+      </c>
+      <c r="AR238" s="20">
+        <v>14.028778482209503</v>
+      </c>
+      <c r="AS238" s="20">
+        <v>28.583825337148546</v>
+      </c>
+      <c r="AT238" s="20">
+        <v>10.067143635232647</v>
+      </c>
     </row>
-    <row r="239" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>496</v>
       </c>
@@ -32326,8 +35927,23 @@
       <c r="AO239">
         <v>9.1053281210067478</v>
       </c>
+      <c r="AP239" s="19">
+        <v>87.403333000000003</v>
+      </c>
+      <c r="AQ239" s="19">
+        <v>77</v>
+      </c>
+      <c r="AR239" s="20">
+        <v>6.1230000000000002</v>
+      </c>
+      <c r="AS239" s="20">
+        <v>40.338000000000001</v>
+      </c>
+      <c r="AT239" s="20">
+        <v>24.678000000000001</v>
+      </c>
     </row>
-    <row r="240" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>497</v>
       </c>
@@ -32451,8 +36067,23 @@
       <c r="AO240">
         <v>58.935529133501248</v>
       </c>
+      <c r="AP240" s="19">
+        <v>88.4779033079881</v>
+      </c>
+      <c r="AQ240" s="19">
+        <v>64.530046873855625</v>
+      </c>
+      <c r="AR240" s="20">
+        <v>6.9808926112643732</v>
+      </c>
+      <c r="AS240" s="20">
+        <v>26.786638485388547</v>
+      </c>
+      <c r="AT240" s="20">
+        <v>8.4064307023754292</v>
+      </c>
     </row>
-    <row r="241" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>498</v>
       </c>
@@ -32576,8 +36207,23 @@
       <c r="AO241">
         <v>47.659297620109044</v>
       </c>
+      <c r="AP241" s="19">
+        <v>102.06531262782906</v>
+      </c>
+      <c r="AQ241" s="19">
+        <v>83.617236956431796</v>
+      </c>
+      <c r="AR241" s="20">
+        <v>11.367387024701063</v>
+      </c>
+      <c r="AS241" s="20">
+        <v>78.355332186892298</v>
+      </c>
+      <c r="AT241" s="20">
+        <v>11.134987825313415</v>
+      </c>
     </row>
-    <row r="242" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>499</v>
       </c>
@@ -32701,8 +36347,23 @@
       <c r="AO242">
         <v>0.64279143119989501</v>
       </c>
+      <c r="AP242" s="19">
+        <v>137.49092162027407</v>
+      </c>
+      <c r="AQ242" s="19">
+        <v>72.172332942555684</v>
+      </c>
+      <c r="AR242" s="20">
+        <v>49.752132913247358</v>
+      </c>
+      <c r="AS242" s="20">
+        <v>121.9657771101993</v>
+      </c>
+      <c r="AT242" s="20">
+        <v>42.973314551582654</v>
+      </c>
     </row>
-    <row r="243" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>500</v>
       </c>
@@ -32826,8 +36487,23 @@
       <c r="AO243">
         <v>9.1053281210067478</v>
       </c>
+      <c r="AP243" s="19">
+        <v>93.497241581993336</v>
+      </c>
+      <c r="AQ243" s="19">
+        <v>70.761932511427162</v>
+      </c>
+      <c r="AR243" s="20">
+        <v>17.002413490430314</v>
+      </c>
+      <c r="AS243" s="20">
+        <v>40.073545262506158</v>
+      </c>
+      <c r="AT243" s="20">
+        <v>11.282697211953453</v>
+      </c>
     </row>
-    <row r="244" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>501</v>
       </c>
@@ -32951,8 +36627,23 @@
       <c r="AO244">
         <v>58.935529133501255</v>
       </c>
+      <c r="AP244" s="19">
+        <v>100.20544081987241</v>
+      </c>
+      <c r="AQ244" s="19">
+        <v>83.023118449188487</v>
+      </c>
+      <c r="AR244" s="20">
+        <v>13.648880884775828</v>
+      </c>
+      <c r="AS244" s="20">
+        <v>42.110342254706069</v>
+      </c>
+      <c r="AT244" s="20">
+        <v>20.23323581168717</v>
+      </c>
     </row>
-    <row r="245" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>502</v>
       </c>
@@ -33076,8 +36767,23 @@
       <c r="AO245">
         <v>47.659297620109044</v>
       </c>
+      <c r="AP245" s="19">
+        <v>118.96274080004683</v>
+      </c>
+      <c r="AQ245" s="19">
+        <v>118.8174017244704</v>
+      </c>
+      <c r="AR245" s="20">
+        <v>26.785869521500789</v>
+      </c>
+      <c r="AS245" s="20">
+        <v>85.43649176331229</v>
+      </c>
+      <c r="AT245" s="20">
+        <v>48.48940496129584</v>
+      </c>
     </row>
-    <row r="246" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>503</v>
       </c>
@@ -33201,8 +36907,23 @@
       <c r="AO246">
         <v>58.935529133501255</v>
       </c>
+      <c r="AP246" s="19">
+        <v>115.81038554701503</v>
+      </c>
+      <c r="AQ246" s="19">
+        <v>106.67296972078289</v>
+      </c>
+      <c r="AR246" s="20">
+        <v>11.667230961911546</v>
+      </c>
+      <c r="AS246" s="20">
+        <v>55.084360821197926</v>
+      </c>
+      <c r="AT246" s="20">
+        <v>42.925287959529491</v>
+      </c>
     </row>
-    <row r="247" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>504</v>
       </c>
@@ -33326,8 +37047,23 @@
       <c r="AO247">
         <v>47.659297620109037</v>
       </c>
+      <c r="AP247" s="19">
+        <v>106.93379931781459</v>
+      </c>
+      <c r="AQ247" s="19">
+        <v>93.827836996661887</v>
+      </c>
+      <c r="AR247" s="20">
+        <v>11.229978052281046</v>
+      </c>
+      <c r="AS247" s="20">
+        <v>57.790226733966556</v>
+      </c>
+      <c r="AT247" s="20">
+        <v>31.527680024511785</v>
+      </c>
     </row>
-    <row r="248" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>505</v>
       </c>
@@ -33451,8 +37187,23 @@
       <c r="AO248">
         <v>0.64279143119989501</v>
       </c>
+      <c r="AP248" s="19">
+        <v>146.17021902609719</v>
+      </c>
+      <c r="AQ248" s="19">
+        <v>66.139716371570032</v>
+      </c>
+      <c r="AR248" s="20">
+        <v>49.603576571284719</v>
+      </c>
+      <c r="AS248" s="20">
+        <v>122.35262115745014</v>
+      </c>
+      <c r="AT248" s="20">
+        <v>14.182561438840869</v>
+      </c>
     </row>
-    <row r="249" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>506</v>
       </c>
@@ -33576,8 +37327,23 @@
       <c r="AO249">
         <v>9.1053281210067478</v>
       </c>
+      <c r="AP249" s="19">
+        <v>101.18782306486148</v>
+      </c>
+      <c r="AQ249" s="19">
+        <v>63.672148144575992</v>
+      </c>
+      <c r="AR249" s="20">
+        <v>24.63503120102235</v>
+      </c>
+      <c r="AS249" s="20">
+        <v>62.643179827839809</v>
+      </c>
+      <c r="AT249" s="20">
+        <v>11.162606683866612</v>
+      </c>
     </row>
-    <row r="250" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>507</v>
       </c>
@@ -33701,8 +37467,23 @@
       <c r="AO250">
         <v>34.637533484150516</v>
       </c>
+      <c r="AP250" s="19">
+        <v>129.92202193889403</v>
+      </c>
+      <c r="AQ250" s="19">
+        <v>71.234096711620879</v>
+      </c>
+      <c r="AR250" s="20">
+        <v>10.731839161536159</v>
+      </c>
+      <c r="AS250" s="20">
+        <v>14.995210973019796</v>
+      </c>
+      <c r="AT250" s="20">
+        <v>6.0392446848476942</v>
+      </c>
     </row>
-    <row r="251" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>508</v>
       </c>
@@ -33826,8 +37607,23 @@
       <c r="AO251">
         <v>107.1185590438875</v>
       </c>
+      <c r="AP251" s="19">
+        <v>102.98063255017482</v>
+      </c>
+      <c r="AQ251" s="19">
+        <v>117.09037555116315</v>
+      </c>
+      <c r="AR251" s="20">
+        <v>10.433544686027064</v>
+      </c>
+      <c r="AS251" s="20">
+        <v>67.829106401094734</v>
+      </c>
+      <c r="AT251" s="20">
+        <v>37.589395818762362</v>
+      </c>
     </row>
-    <row r="252" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>509</v>
       </c>
@@ -33951,8 +37747,23 @@
       <c r="AO252">
         <v>107.1185590438875</v>
       </c>
+      <c r="AP252" s="19">
+        <v>105.0247932386691</v>
+      </c>
+      <c r="AQ252" s="19">
+        <v>107.82414377000754</v>
+      </c>
+      <c r="AR252" s="20">
+        <v>6.6261924060958846</v>
+      </c>
+      <c r="AS252" s="20">
+        <v>44.949923331726531</v>
+      </c>
+      <c r="AT252" s="20">
+        <v>6.7865384453755517</v>
+      </c>
     </row>
-    <row r="253" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>510</v>
       </c>
@@ -34076,8 +37887,23 @@
       <c r="AO253">
         <v>3.3024635000499338</v>
       </c>
+      <c r="AP253" s="19">
+        <v>133.05518950906503</v>
+      </c>
+      <c r="AQ253" s="19">
+        <v>136.68461044221584</v>
+      </c>
+      <c r="AR253" s="20">
+        <v>9.3351190323211455</v>
+      </c>
+      <c r="AS253" s="20">
+        <v>52.904359611140585</v>
+      </c>
+      <c r="AT253" s="20">
+        <v>43.644926222867838</v>
+      </c>
     </row>
-    <row r="254" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>511</v>
       </c>
@@ -34201,8 +38027,23 @@
       <c r="AO254">
         <v>34.637533484150516</v>
       </c>
+      <c r="AP254" s="19">
+        <v>124.05449201690824</v>
+      </c>
+      <c r="AQ254" s="19">
+        <v>84.805115413710624</v>
+      </c>
+      <c r="AR254" s="20">
+        <v>11.14685256895177</v>
+      </c>
+      <c r="AS254" s="20">
+        <v>33.511087996565188</v>
+      </c>
+      <c r="AT254" s="20">
+        <v>11.079008689251902</v>
+      </c>
     </row>
-    <row r="255" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>512</v>
       </c>
@@ -34326,8 +38167,23 @@
       <c r="AO255">
         <v>3.3024635000499329</v>
       </c>
+      <c r="AP255" s="19">
+        <v>138.06507510771905</v>
+      </c>
+      <c r="AQ255" s="19">
+        <v>96.488134602666833</v>
+      </c>
+      <c r="AR255" s="20">
+        <v>15.859504329370512</v>
+      </c>
+      <c r="AS255" s="20">
+        <v>52.061690592270196</v>
+      </c>
+      <c r="AT255" s="20">
+        <v>16.370774657418369</v>
+      </c>
     </row>
-    <row r="256" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>513</v>
       </c>
@@ -34451,8 +38307,23 @@
       <c r="AO256">
         <v>3.8205414132724802</v>
       </c>
+      <c r="AP256" s="19">
+        <v>126.83947378348378</v>
+      </c>
+      <c r="AQ256" s="19">
+        <v>101.10094186242081</v>
+      </c>
+      <c r="AR256" s="20">
+        <v>7.2884181757021924</v>
+      </c>
+      <c r="AS256" s="20">
+        <v>88.430420502326612</v>
+      </c>
+      <c r="AT256" s="20">
+        <v>33.953064332567124</v>
+      </c>
     </row>
-    <row r="257" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>514</v>
       </c>
@@ -34576,8 +38447,23 @@
       <c r="AO257">
         <v>3.8205414132724802</v>
       </c>
+      <c r="AP257" s="19">
+        <v>121.89064657837586</v>
+      </c>
+      <c r="AQ257" s="19">
+        <v>126</v>
+      </c>
+      <c r="AR257" s="20">
+        <v>6.6168057734962096</v>
+      </c>
+      <c r="AS257" s="20">
+        <v>71.197787929950024</v>
+      </c>
+      <c r="AT257" s="20">
+        <v>55.820726520342966</v>
+      </c>
     </row>
-    <row r="258" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>515</v>
       </c>
@@ -34701,8 +38587,23 @@
       <c r="AO258">
         <v>3.8205414132724802</v>
       </c>
+      <c r="AP258" s="19">
+        <v>142.13949904515246</v>
+      </c>
+      <c r="AQ258" s="19">
+        <v>94.869767706026011</v>
+      </c>
+      <c r="AR258" s="20">
+        <v>29.426380161299477</v>
+      </c>
+      <c r="AS258" s="20">
+        <v>52.541898534673706</v>
+      </c>
+      <c r="AT258" s="20">
+        <v>35.943400891690814</v>
+      </c>
     </row>
-    <row r="259" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>516</v>
       </c>
@@ -34826,8 +38727,23 @@
       <c r="AO259">
         <v>3.8205414132724802</v>
       </c>
+      <c r="AP259" s="19">
+        <v>129.53262271607761</v>
+      </c>
+      <c r="AQ259" s="19">
+        <v>115.25669697117021</v>
+      </c>
+      <c r="AR259" s="20">
+        <v>15.153959259079191</v>
+      </c>
+      <c r="AS259" s="20">
+        <v>52.191959259079191</v>
+      </c>
+      <c r="AT259" s="20">
+        <v>52.582428606154878</v>
+      </c>
     </row>
-    <row r="260" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>517</v>
       </c>
@@ -34951,8 +38867,23 @@
       <c r="AO260">
         <v>3.3024635000499329</v>
       </c>
+      <c r="AP260" s="19">
+        <v>135.82274673207732</v>
+      </c>
+      <c r="AQ260" s="19">
+        <v>136.96360533881864</v>
+      </c>
+      <c r="AR260" s="20">
+        <v>15.642515018349266</v>
+      </c>
+      <c r="AS260" s="20">
+        <v>51.505020569879157</v>
+      </c>
+      <c r="AT260" s="20">
+        <v>46.578260746593109</v>
+      </c>
     </row>
-    <row r="261" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>518</v>
       </c>
@@ -35076,8 +39007,23 @@
       <c r="AO261">
         <v>34.637533484150509</v>
       </c>
+      <c r="AP261" s="19">
+        <v>131.88157491964512</v>
+      </c>
+      <c r="AQ261" s="19">
+        <v>84.252591425491332</v>
+      </c>
+      <c r="AR261" s="20">
+        <v>7.1472512853470453</v>
+      </c>
+      <c r="AS261" s="20">
+        <v>24.167147110042293</v>
+      </c>
+      <c r="AT261" s="20">
+        <v>9.7478408450120231</v>
+      </c>
     </row>
-    <row r="262" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>519</v>
       </c>
@@ -35201,8 +39147,23 @@
       <c r="AO262">
         <v>34.637533484150509</v>
       </c>
+      <c r="AP262" s="19">
+        <v>129.30689424890247</v>
+      </c>
+      <c r="AQ262" s="19">
+        <v>100.46612365790448</v>
+      </c>
+      <c r="AR262" s="20">
+        <v>7.3834531390490321</v>
+      </c>
+      <c r="AS262" s="20">
+        <v>23.839814513143281</v>
+      </c>
+      <c r="AT262" s="20">
+        <v>27.929166446289742</v>
+      </c>
     </row>
-    <row r="263" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>520</v>
       </c>
@@ -35326,8 +39287,23 @@
       <c r="AO263">
         <v>3.3024635000499329</v>
       </c>
+      <c r="AP263" s="19">
+        <v>143.08177567392741</v>
+      </c>
+      <c r="AQ263" s="19">
+        <v>142.38518238518239</v>
+      </c>
+      <c r="AR263" s="20">
+        <v>21.276943441693444</v>
+      </c>
+      <c r="AS263" s="20">
+        <v>76.904032980532975</v>
+      </c>
+      <c r="AT263" s="20">
+        <v>33.609998724248726</v>
+      </c>
     </row>
-    <row r="264" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>521</v>
       </c>
@@ -35451,8 +39427,23 @@
       <c r="AO264">
         <v>107.1185590438875</v>
       </c>
+      <c r="AP264" s="19">
+        <v>133.7974440604506</v>
+      </c>
+      <c r="AQ264" s="19">
+        <v>131.16210253440335</v>
+      </c>
+      <c r="AR264" s="20">
+        <v>35.428832657676288</v>
+      </c>
+      <c r="AS264" s="20">
+        <v>53.972212900912837</v>
+      </c>
+      <c r="AT264" s="20">
+        <v>10.591150905931993</v>
+      </c>
     </row>
-    <row r="265" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>522</v>
       </c>
@@ -35576,8 +39567,23 @@
       <c r="AO265">
         <v>107.1185590438875</v>
       </c>
+      <c r="AP265" s="19">
+        <v>108.83281314475465</v>
+      </c>
+      <c r="AQ265" s="19">
+        <v>158.06288520483832</v>
+      </c>
+      <c r="AR265" s="20">
+        <v>12.620710919218219</v>
+      </c>
+      <c r="AS265" s="20">
+        <v>73.230771991694411</v>
+      </c>
+      <c r="AT265" s="20">
+        <v>34.992905013018692</v>
+      </c>
     </row>
-    <row r="266" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>523</v>
       </c>
@@ -35700,6 +39706,21 @@
       </c>
       <c r="AO266">
         <v>107.1185590438875</v>
+      </c>
+      <c r="AP266" s="19">
+        <v>101.86793100313653</v>
+      </c>
+      <c r="AQ266" s="19">
+        <v>99.161603267806996</v>
+      </c>
+      <c r="AR266" s="20">
+        <v>16.861826981290346</v>
+      </c>
+      <c r="AS266" s="20">
+        <v>67.181428352602211</v>
+      </c>
+      <c r="AT266" s="20">
+        <v>48.571160582078122</v>
       </c>
     </row>
   </sheetData>

--- a/server/data/resources/including metadata/AMR15_testfile_updated.xlsx
+++ b/server/data/resources/including metadata/AMR15_testfile_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Desktop\BMF-DataVis\server\data\resources\including metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC0EE2-332C-4CE2-90F8-0DD05B25793E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8772DC83-01D2-4523-8A0F-896FADC5C220}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E34745B0-97AD-4A1A-8C32-AE0DB411A035}"/>
   </bookViews>
@@ -2552,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313A2FC7-B2F5-4A9F-B504-E0759D65C0D9}">
   <dimension ref="A1:AT266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,6 +3742,21 @@
       <c r="AO9">
         <v>2017</v>
       </c>
+      <c r="AP9">
+        <v>2017</v>
+      </c>
+      <c r="AQ9">
+        <v>2017</v>
+      </c>
+      <c r="AR9">
+        <v>2017</v>
+      </c>
+      <c r="AS9">
+        <v>2017</v>
+      </c>
+      <c r="AT9">
+        <v>2017</v>
+      </c>
     </row>
     <row r="10" spans="1:46" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
